--- a/data/2019-Finland-Temperature-Experiment-LarvaeMeasurements.xlsx
+++ b/data/2019-Finland-Temperature-Experiment-LarvaeMeasurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Latitude-Embryo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7E9998-A1A5-F94A-8CCB-02156C7C61DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D34289-E7E4-9243-AC9E-EEDFCCB77A41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" activeTab="3" xr2:uid="{27D524DF-4AB5-484F-AF83-FF686F85EF38}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" xr2:uid="{27D524DF-4AB5-484F-AF83-FF686F85EF38}"/>
   </bookViews>
   <sheets>
     <sheet name="LK-9" sheetId="1" r:id="rId1"/>
@@ -603,9 +603,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39121FDF-306F-F247-9D02-2D2467523492}">
   <dimension ref="A1:L219"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="10" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="10" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -662,7 +662,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C2" s="12">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>38</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C3" s="12">
         <v>9</v>
@@ -738,7 +738,7 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C4" s="12">
         <v>9</v>
@@ -776,7 +776,7 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C5" s="12">
         <v>9</v>
@@ -814,7 +814,7 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C6" s="12">
         <v>9</v>
@@ -852,7 +852,7 @@
         <v>38</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C7" s="12">
         <v>9</v>
@@ -890,7 +890,7 @@
         <v>38</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C8" s="12">
         <v>9</v>
@@ -928,7 +928,7 @@
         <v>38</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C9" s="12">
         <v>9</v>
@@ -966,7 +966,7 @@
         <v>38</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C10" s="12">
         <v>9</v>
@@ -1004,7 +1004,7 @@
         <v>38</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C11" s="12">
         <v>9</v>
@@ -1042,7 +1042,7 @@
         <v>38</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C12" s="12">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>38</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C13" s="12">
         <v>9</v>
@@ -1118,7 +1118,7 @@
         <v>38</v>
       </c>
       <c r="B14">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C14" s="12">
         <v>9</v>
@@ -1156,7 +1156,7 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C15" s="12">
         <v>9</v>
@@ -1194,7 +1194,7 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C16" s="12">
         <v>9</v>
@@ -1232,7 +1232,7 @@
         <v>38</v>
       </c>
       <c r="B17">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C17" s="12">
         <v>9</v>
@@ -1270,7 +1270,7 @@
         <v>38</v>
       </c>
       <c r="B18">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C18" s="12">
         <v>9</v>
@@ -1308,7 +1308,7 @@
         <v>38</v>
       </c>
       <c r="B19">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C19" s="12">
         <v>9</v>
@@ -1346,7 +1346,7 @@
         <v>38</v>
       </c>
       <c r="B20">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C20" s="12">
         <v>9</v>
@@ -1384,7 +1384,7 @@
         <v>38</v>
       </c>
       <c r="B21">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C21" s="12">
         <v>9</v>
@@ -1422,7 +1422,7 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C22" s="12">
         <v>9</v>
@@ -1460,7 +1460,7 @@
         <v>38</v>
       </c>
       <c r="B23">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C23" s="12">
         <v>9</v>
@@ -1498,7 +1498,7 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C24" s="12">
         <v>9</v>
@@ -1536,7 +1536,7 @@
         <v>38</v>
       </c>
       <c r="B25">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C25" s="12">
         <v>9</v>
@@ -1574,7 +1574,7 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C26" s="12">
         <v>9</v>
@@ -1612,7 +1612,7 @@
         <v>38</v>
       </c>
       <c r="B27">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C27" s="12">
         <v>9</v>
@@ -1650,7 +1650,7 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C28" s="12">
         <v>9</v>
@@ -1688,7 +1688,7 @@
         <v>38</v>
       </c>
       <c r="B29">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C29" s="12">
         <v>9</v>
@@ -1726,7 +1726,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C30" s="12">
         <v>9</v>
@@ -1764,7 +1764,7 @@
         <v>38</v>
       </c>
       <c r="B31">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C31" s="12">
         <v>9</v>
@@ -1802,7 +1802,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C32" s="12">
         <v>9</v>
@@ -1840,7 +1840,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C33" s="12">
         <v>9</v>
@@ -1878,7 +1878,7 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C34" s="12">
         <v>9</v>
@@ -1916,7 +1916,7 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C35" s="12">
         <v>9</v>
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C36" s="12">
         <v>9</v>
@@ -1992,7 +1992,7 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C37" s="12">
         <v>9</v>
@@ -2030,7 +2030,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C38" s="12">
         <v>9</v>
@@ -2068,7 +2068,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C39" s="12">
         <v>9</v>
@@ -2106,7 +2106,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C40" s="12">
         <v>9</v>
@@ -2144,7 +2144,7 @@
         <v>38</v>
       </c>
       <c r="B41">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C41" s="12">
         <v>9</v>
@@ -2182,7 +2182,7 @@
         <v>38</v>
       </c>
       <c r="B42">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C42" s="12">
         <v>9</v>
@@ -2220,7 +2220,7 @@
         <v>38</v>
       </c>
       <c r="B43">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C43" s="12">
         <v>9</v>
@@ -2258,7 +2258,7 @@
         <v>38</v>
       </c>
       <c r="B44">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C44" s="12">
         <v>9</v>
@@ -2296,7 +2296,7 @@
         <v>38</v>
       </c>
       <c r="B45">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C45" s="12">
         <v>9</v>
@@ -2334,7 +2334,7 @@
         <v>38</v>
       </c>
       <c r="B46">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C46" s="12">
         <v>9</v>
@@ -2372,7 +2372,7 @@
         <v>38</v>
       </c>
       <c r="B47">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C47" s="12">
         <v>9</v>
@@ -2410,7 +2410,7 @@
         <v>38</v>
       </c>
       <c r="B48">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C48" s="12">
         <v>9</v>
@@ -2448,7 +2448,7 @@
         <v>38</v>
       </c>
       <c r="B49">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C49" s="12">
         <v>9</v>
@@ -2486,7 +2486,7 @@
         <v>38</v>
       </c>
       <c r="B50">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C50" s="12">
         <v>9</v>
@@ -2524,7 +2524,7 @@
         <v>38</v>
       </c>
       <c r="B51">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C51" s="12">
         <v>9</v>
@@ -2562,7 +2562,7 @@
         <v>38</v>
       </c>
       <c r="B52">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C52" s="12">
         <v>9</v>
@@ -2600,7 +2600,7 @@
         <v>38</v>
       </c>
       <c r="B53">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C53" s="12">
         <v>9</v>
@@ -2638,7 +2638,7 @@
         <v>38</v>
       </c>
       <c r="B54">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C54" s="12">
         <v>9</v>
@@ -2676,7 +2676,7 @@
         <v>38</v>
       </c>
       <c r="B55">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C55" s="12">
         <v>9</v>
@@ -2714,7 +2714,7 @@
         <v>38</v>
       </c>
       <c r="B56">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C56" s="12">
         <v>9</v>
@@ -2752,7 +2752,7 @@
         <v>38</v>
       </c>
       <c r="B57">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C57" s="12">
         <v>9</v>
@@ -2790,7 +2790,7 @@
         <v>38</v>
       </c>
       <c r="B58">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C58" s="12">
         <v>9</v>
@@ -2828,7 +2828,7 @@
         <v>38</v>
       </c>
       <c r="B59">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C59" s="12">
         <v>9</v>
@@ -2866,7 +2866,7 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C60" s="12">
         <v>9</v>
@@ -2904,7 +2904,7 @@
         <v>38</v>
       </c>
       <c r="B61">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C61" s="12">
         <v>9</v>
@@ -2942,7 +2942,7 @@
         <v>38</v>
       </c>
       <c r="B62">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C62" s="12">
         <v>9</v>
@@ -2980,7 +2980,7 @@
         <v>38</v>
       </c>
       <c r="B63">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C63" s="12">
         <v>9</v>
@@ -3018,7 +3018,7 @@
         <v>38</v>
       </c>
       <c r="B64">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C64" s="12">
         <v>9</v>
@@ -3056,7 +3056,7 @@
         <v>38</v>
       </c>
       <c r="B65">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C65" s="12">
         <v>9</v>
@@ -3094,7 +3094,7 @@
         <v>38</v>
       </c>
       <c r="B66">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C66" s="12">
         <v>9</v>
@@ -3132,7 +3132,7 @@
         <v>38</v>
       </c>
       <c r="B67">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C67" s="12">
         <v>9</v>
@@ -3170,7 +3170,7 @@
         <v>38</v>
       </c>
       <c r="B68">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C68" s="12">
         <v>9</v>
@@ -3208,7 +3208,7 @@
         <v>38</v>
       </c>
       <c r="B69">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C69" s="12">
         <v>9</v>
@@ -3246,7 +3246,7 @@
         <v>38</v>
       </c>
       <c r="B70">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C70" s="12">
         <v>9</v>
@@ -3284,7 +3284,7 @@
         <v>38</v>
       </c>
       <c r="B71">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C71" s="12">
         <v>9</v>
@@ -3322,7 +3322,7 @@
         <v>38</v>
       </c>
       <c r="B72">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C72" s="12">
         <v>9</v>
@@ -3360,7 +3360,7 @@
         <v>38</v>
       </c>
       <c r="B73">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C73" s="12">
         <v>9</v>
@@ -3398,7 +3398,7 @@
         <v>38</v>
       </c>
       <c r="B74">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C74" s="12">
         <v>9</v>
@@ -3436,7 +3436,7 @@
         <v>38</v>
       </c>
       <c r="B75">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C75" s="12">
         <v>9</v>
@@ -3474,7 +3474,7 @@
         <v>38</v>
       </c>
       <c r="B76">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C76" s="12">
         <v>9</v>
@@ -3512,7 +3512,7 @@
         <v>38</v>
       </c>
       <c r="B77">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C77" s="12">
         <v>9</v>
@@ -3550,7 +3550,7 @@
         <v>38</v>
       </c>
       <c r="B78">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C78" s="12">
         <v>9</v>
@@ -3588,7 +3588,7 @@
         <v>38</v>
       </c>
       <c r="B79">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C79" s="12">
         <v>9</v>
@@ -3626,7 +3626,7 @@
         <v>38</v>
       </c>
       <c r="B80">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C80" s="12">
         <v>9</v>
@@ -3664,7 +3664,7 @@
         <v>38</v>
       </c>
       <c r="B81">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C81" s="12">
         <v>9</v>
@@ -3702,7 +3702,7 @@
         <v>38</v>
       </c>
       <c r="B82">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C82" s="12">
         <v>9</v>
@@ -3740,7 +3740,7 @@
         <v>38</v>
       </c>
       <c r="B83">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C83" s="12">
         <v>9</v>
@@ -3778,7 +3778,7 @@
         <v>38</v>
       </c>
       <c r="B84">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C84" s="12">
         <v>9</v>
@@ -3816,7 +3816,7 @@
         <v>38</v>
       </c>
       <c r="B85">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C85" s="12">
         <v>9</v>
@@ -3854,7 +3854,7 @@
         <v>38</v>
       </c>
       <c r="B86">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C86" s="12">
         <v>9</v>
@@ -3892,7 +3892,7 @@
         <v>38</v>
       </c>
       <c r="B87">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C87" s="12">
         <v>9</v>
@@ -3930,7 +3930,7 @@
         <v>38</v>
       </c>
       <c r="B88">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C88" s="12">
         <v>9</v>
@@ -3968,7 +3968,7 @@
         <v>38</v>
       </c>
       <c r="B89">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C89" s="12">
         <v>9</v>
@@ -4006,7 +4006,7 @@
         <v>38</v>
       </c>
       <c r="B90">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C90" s="12">
         <v>9</v>
@@ -4044,7 +4044,7 @@
         <v>38</v>
       </c>
       <c r="B91">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C91" s="12">
         <v>9</v>
@@ -4082,7 +4082,7 @@
         <v>38</v>
       </c>
       <c r="B92">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C92" s="12">
         <v>9</v>
@@ -4120,7 +4120,7 @@
         <v>38</v>
       </c>
       <c r="B93">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C93" s="12">
         <v>9</v>
@@ -4158,7 +4158,7 @@
         <v>38</v>
       </c>
       <c r="B94">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C94" s="12">
         <v>9</v>
@@ -4196,7 +4196,7 @@
         <v>38</v>
       </c>
       <c r="B95">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C95" s="12">
         <v>9</v>
@@ -4234,7 +4234,7 @@
         <v>38</v>
       </c>
       <c r="B96">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C96" s="12">
         <v>9</v>
@@ -4272,7 +4272,7 @@
         <v>38</v>
       </c>
       <c r="B97">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C97" s="12">
         <v>9</v>
@@ -4310,7 +4310,7 @@
         <v>38</v>
       </c>
       <c r="B98">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C98" s="12">
         <v>9</v>
@@ -4348,7 +4348,7 @@
         <v>38</v>
       </c>
       <c r="B99">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C99" s="12">
         <v>9</v>
@@ -4386,7 +4386,7 @@
         <v>38</v>
       </c>
       <c r="B100">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C100" s="12">
         <v>9</v>
@@ -4424,7 +4424,7 @@
         <v>38</v>
       </c>
       <c r="B101">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C101" s="12">
         <v>9</v>
@@ -4462,7 +4462,7 @@
         <v>38</v>
       </c>
       <c r="B102">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C102" s="12">
         <v>9</v>
@@ -4500,7 +4500,7 @@
         <v>38</v>
       </c>
       <c r="B103">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C103" s="12">
         <v>9</v>
@@ -4538,7 +4538,7 @@
         <v>38</v>
       </c>
       <c r="B104">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C104" s="12">
         <v>9</v>
@@ -4576,7 +4576,7 @@
         <v>38</v>
       </c>
       <c r="B105">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C105" s="12">
         <v>9</v>
@@ -4614,7 +4614,7 @@
         <v>38</v>
       </c>
       <c r="B106">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C106" s="12">
         <v>9</v>
@@ -4652,7 +4652,7 @@
         <v>38</v>
       </c>
       <c r="B107">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C107" s="12">
         <v>9</v>
@@ -4690,7 +4690,7 @@
         <v>38</v>
       </c>
       <c r="B108">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C108" s="12">
         <v>9</v>
@@ -4728,7 +4728,7 @@
         <v>38</v>
       </c>
       <c r="B109">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C109" s="12">
         <v>9</v>
@@ -4766,7 +4766,7 @@
         <v>38</v>
       </c>
       <c r="B110">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C110" s="12">
         <v>9</v>
@@ -4804,7 +4804,7 @@
         <v>38</v>
       </c>
       <c r="B111">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C111" s="12">
         <v>9</v>
@@ -4842,7 +4842,7 @@
         <v>38</v>
       </c>
       <c r="B112">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C112" s="12">
         <v>9</v>
@@ -4880,7 +4880,7 @@
         <v>38</v>
       </c>
       <c r="B113">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C113" s="12">
         <v>9</v>
@@ -4918,7 +4918,7 @@
         <v>38</v>
       </c>
       <c r="B114">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C114" s="12">
         <v>9</v>
@@ -4956,7 +4956,7 @@
         <v>38</v>
       </c>
       <c r="B115">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C115" s="12">
         <v>9</v>
@@ -4994,7 +4994,7 @@
         <v>38</v>
       </c>
       <c r="B116">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C116" s="12">
         <v>9</v>
@@ -5032,7 +5032,7 @@
         <v>38</v>
       </c>
       <c r="B117">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C117" s="12">
         <v>9</v>
@@ -5070,7 +5070,7 @@
         <v>38</v>
       </c>
       <c r="B118">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C118" s="12">
         <v>9</v>
@@ -5108,7 +5108,7 @@
         <v>38</v>
       </c>
       <c r="B119">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C119" s="12">
         <v>9</v>
@@ -5146,7 +5146,7 @@
         <v>38</v>
       </c>
       <c r="B120">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C120" s="12">
         <v>9</v>
@@ -5184,7 +5184,7 @@
         <v>38</v>
       </c>
       <c r="B121">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C121" s="12">
         <v>9</v>
@@ -5222,7 +5222,7 @@
         <v>38</v>
       </c>
       <c r="B122">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C122" s="12">
         <v>9</v>
@@ -5260,7 +5260,7 @@
         <v>38</v>
       </c>
       <c r="B123">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C123" s="12">
         <v>9</v>
@@ -5298,7 +5298,7 @@
         <v>38</v>
       </c>
       <c r="B124">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C124" s="12">
         <v>9</v>
@@ -5336,7 +5336,7 @@
         <v>38</v>
       </c>
       <c r="B125">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C125" s="12">
         <v>9</v>
@@ -5374,7 +5374,7 @@
         <v>38</v>
       </c>
       <c r="B126">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C126" s="12">
         <v>9</v>
@@ -5412,7 +5412,7 @@
         <v>38</v>
       </c>
       <c r="B127">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C127" s="12">
         <v>9</v>
@@ -5450,7 +5450,7 @@
         <v>38</v>
       </c>
       <c r="B128">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C128" s="12">
         <v>9</v>
@@ -5488,7 +5488,7 @@
         <v>38</v>
       </c>
       <c r="B129">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C129" s="12">
         <v>9</v>
@@ -5526,7 +5526,7 @@
         <v>38</v>
       </c>
       <c r="B130">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C130" s="12">
         <v>9</v>
@@ -5564,7 +5564,7 @@
         <v>38</v>
       </c>
       <c r="B131">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C131" s="12">
         <v>9</v>
@@ -5602,7 +5602,7 @@
         <v>38</v>
       </c>
       <c r="B132">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C132" s="12">
         <v>9</v>
@@ -5640,7 +5640,7 @@
         <v>38</v>
       </c>
       <c r="B133">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C133" s="12">
         <v>9</v>
@@ -5678,7 +5678,7 @@
         <v>38</v>
       </c>
       <c r="B134">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C134" s="12">
         <v>9</v>
@@ -5716,7 +5716,7 @@
         <v>38</v>
       </c>
       <c r="B135">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C135" s="12">
         <v>9</v>
@@ -5754,7 +5754,7 @@
         <v>38</v>
       </c>
       <c r="B136">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C136" s="12">
         <v>9</v>
@@ -5792,7 +5792,7 @@
         <v>38</v>
       </c>
       <c r="B137">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C137" s="12">
         <v>9</v>
@@ -5830,7 +5830,7 @@
         <v>38</v>
       </c>
       <c r="B138">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C138" s="12">
         <v>9</v>
@@ -5868,7 +5868,7 @@
         <v>38</v>
       </c>
       <c r="B139">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C139" s="12">
         <v>9</v>
@@ -5906,7 +5906,7 @@
         <v>38</v>
       </c>
       <c r="B140">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C140" s="12">
         <v>9</v>
@@ -5944,7 +5944,7 @@
         <v>38</v>
       </c>
       <c r="B141">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C141" s="12">
         <v>9</v>
@@ -5982,7 +5982,7 @@
         <v>38</v>
       </c>
       <c r="B142">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C142" s="12">
         <v>9</v>
@@ -6020,7 +6020,7 @@
         <v>38</v>
       </c>
       <c r="B143">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C143" s="12">
         <v>9</v>
@@ -6058,7 +6058,7 @@
         <v>38</v>
       </c>
       <c r="B144">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C144" s="12">
         <v>9</v>
@@ -6096,7 +6096,7 @@
         <v>38</v>
       </c>
       <c r="B145">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C145" s="12">
         <v>9</v>
@@ -6134,7 +6134,7 @@
         <v>38</v>
       </c>
       <c r="B146">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C146" s="12">
         <v>9</v>
@@ -6172,7 +6172,7 @@
         <v>38</v>
       </c>
       <c r="B147">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C147" s="12">
         <v>9</v>
@@ -6210,7 +6210,7 @@
         <v>38</v>
       </c>
       <c r="B148">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C148" s="12">
         <v>9</v>
@@ -6248,7 +6248,7 @@
         <v>38</v>
       </c>
       <c r="B149">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C149" s="12">
         <v>9</v>
@@ -6286,7 +6286,7 @@
         <v>38</v>
       </c>
       <c r="B150">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C150" s="12">
         <v>9</v>
@@ -6324,7 +6324,7 @@
         <v>38</v>
       </c>
       <c r="B151">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C151" s="12">
         <v>9</v>
@@ -6362,7 +6362,7 @@
         <v>38</v>
       </c>
       <c r="B152">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C152" s="12">
         <v>9</v>
@@ -6400,7 +6400,7 @@
         <v>38</v>
       </c>
       <c r="B153">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C153" s="12">
         <v>9</v>
@@ -6438,7 +6438,7 @@
         <v>38</v>
       </c>
       <c r="B154">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C154" s="12">
         <v>9</v>
@@ -6476,7 +6476,7 @@
         <v>38</v>
       </c>
       <c r="B155">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C155" s="12">
         <v>9</v>
@@ -6514,7 +6514,7 @@
         <v>38</v>
       </c>
       <c r="B156">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C156" s="12">
         <v>9</v>
@@ -6552,7 +6552,7 @@
         <v>38</v>
       </c>
       <c r="B157">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C157" s="12">
         <v>9</v>
@@ -6590,7 +6590,7 @@
         <v>38</v>
       </c>
       <c r="B158">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C158" s="12">
         <v>9</v>
@@ -6628,7 +6628,7 @@
         <v>38</v>
       </c>
       <c r="B159">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C159" s="12">
         <v>9</v>
@@ -6666,7 +6666,7 @@
         <v>38</v>
       </c>
       <c r="B160">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C160" s="12">
         <v>9</v>
@@ -6704,7 +6704,7 @@
         <v>38</v>
       </c>
       <c r="B161">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C161" s="12">
         <v>9</v>
@@ -6742,7 +6742,7 @@
         <v>38</v>
       </c>
       <c r="B162">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C162" s="12">
         <v>9</v>
@@ -6780,7 +6780,7 @@
         <v>38</v>
       </c>
       <c r="B163">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C163" s="12">
         <v>9</v>
@@ -6818,7 +6818,7 @@
         <v>38</v>
       </c>
       <c r="B164">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C164" s="12">
         <v>9</v>
@@ -6856,7 +6856,7 @@
         <v>38</v>
       </c>
       <c r="B165">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C165" s="12">
         <v>9</v>
@@ -6894,7 +6894,7 @@
         <v>38</v>
       </c>
       <c r="B166">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C166" s="12">
         <v>9</v>
@@ -6932,7 +6932,7 @@
         <v>38</v>
       </c>
       <c r="B167">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C167" s="12">
         <v>9</v>
@@ -6970,7 +6970,7 @@
         <v>38</v>
       </c>
       <c r="B168">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C168" s="12">
         <v>9</v>
@@ -7008,7 +7008,7 @@
         <v>38</v>
       </c>
       <c r="B169">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C169" s="12">
         <v>9</v>
@@ -7046,7 +7046,7 @@
         <v>38</v>
       </c>
       <c r="B170">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C170" s="12">
         <v>9</v>
@@ -7084,7 +7084,7 @@
         <v>38</v>
       </c>
       <c r="B171">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C171" s="12">
         <v>9</v>
@@ -7122,7 +7122,7 @@
         <v>38</v>
       </c>
       <c r="B172">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C172" s="12">
         <v>9</v>
@@ -7160,7 +7160,7 @@
         <v>38</v>
       </c>
       <c r="B173">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C173" s="12">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         <v>38</v>
       </c>
       <c r="B174">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C174" s="12">
         <v>9</v>
@@ -7236,7 +7236,7 @@
         <v>38</v>
       </c>
       <c r="B175">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C175" s="12">
         <v>9</v>
@@ -7274,7 +7274,7 @@
         <v>38</v>
       </c>
       <c r="B176">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C176" s="12">
         <v>9</v>
@@ -7312,7 +7312,7 @@
         <v>38</v>
       </c>
       <c r="B177">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C177" s="12">
         <v>9</v>
@@ -7350,7 +7350,7 @@
         <v>38</v>
       </c>
       <c r="B178">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C178" s="12">
         <v>9</v>
@@ -7388,7 +7388,7 @@
         <v>38</v>
       </c>
       <c r="B179">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C179" s="12">
         <v>9</v>
@@ -7426,7 +7426,7 @@
         <v>38</v>
       </c>
       <c r="B180">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C180" s="12">
         <v>9</v>
@@ -7464,7 +7464,7 @@
         <v>38</v>
       </c>
       <c r="B181">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C181" s="12">
         <v>9</v>
@@ -7502,7 +7502,7 @@
         <v>38</v>
       </c>
       <c r="B182">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C182" s="12">
         <v>9</v>
@@ -7540,7 +7540,7 @@
         <v>38</v>
       </c>
       <c r="B183">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C183" s="12">
         <v>9</v>
@@ -7578,7 +7578,7 @@
         <v>38</v>
       </c>
       <c r="B184">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C184" s="12">
         <v>9</v>
@@ -7616,7 +7616,7 @@
         <v>38</v>
       </c>
       <c r="B185">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C185" s="12">
         <v>9</v>
@@ -7654,7 +7654,7 @@
         <v>38</v>
       </c>
       <c r="B186">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C186" s="12">
         <v>9</v>
@@ -7692,7 +7692,7 @@
         <v>38</v>
       </c>
       <c r="B187">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C187" s="12">
         <v>9</v>
@@ -7730,7 +7730,7 @@
         <v>38</v>
       </c>
       <c r="B188">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C188" s="12">
         <v>9</v>
@@ -7768,7 +7768,7 @@
         <v>38</v>
       </c>
       <c r="B189">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C189" s="12">
         <v>9</v>
@@ -7806,7 +7806,7 @@
         <v>38</v>
       </c>
       <c r="B190">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C190" s="12">
         <v>9</v>
@@ -7844,7 +7844,7 @@
         <v>38</v>
       </c>
       <c r="B191">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C191" s="12">
         <v>9</v>
@@ -7882,7 +7882,7 @@
         <v>38</v>
       </c>
       <c r="B192">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C192" s="12">
         <v>9</v>
@@ -7920,7 +7920,7 @@
         <v>38</v>
       </c>
       <c r="B193">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C193" s="12">
         <v>9</v>
@@ -7958,7 +7958,7 @@
         <v>38</v>
       </c>
       <c r="B194">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C194" s="12">
         <v>9</v>
@@ -7996,7 +7996,7 @@
         <v>38</v>
       </c>
       <c r="B195">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C195" s="12">
         <v>9</v>
@@ -8034,7 +8034,7 @@
         <v>38</v>
       </c>
       <c r="B196">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C196" s="12">
         <v>9</v>
@@ -8072,7 +8072,7 @@
         <v>38</v>
       </c>
       <c r="B197">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C197" s="12">
         <v>9</v>
@@ -8110,7 +8110,7 @@
         <v>38</v>
       </c>
       <c r="B198">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C198" s="12">
         <v>9</v>
@@ -8148,7 +8148,7 @@
         <v>38</v>
       </c>
       <c r="B199">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C199" s="12">
         <v>9</v>
@@ -8186,7 +8186,7 @@
         <v>38</v>
       </c>
       <c r="B200">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C200" s="12">
         <v>9</v>
@@ -8224,7 +8224,7 @@
         <v>38</v>
       </c>
       <c r="B201">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C201" s="12">
         <v>9</v>
@@ -8262,7 +8262,7 @@
         <v>38</v>
       </c>
       <c r="B202">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C202" s="12">
         <v>9</v>
@@ -8300,7 +8300,7 @@
         <v>38</v>
       </c>
       <c r="B203">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C203" s="12">
         <v>9</v>
@@ -8338,7 +8338,7 @@
         <v>38</v>
       </c>
       <c r="B204">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C204" s="12">
         <v>9</v>
@@ -8376,7 +8376,7 @@
         <v>38</v>
       </c>
       <c r="B205">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C205" s="12">
         <v>9</v>
@@ -8414,7 +8414,7 @@
         <v>38</v>
       </c>
       <c r="B206">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C206" s="12">
         <v>9</v>
@@ -8452,7 +8452,7 @@
         <v>38</v>
       </c>
       <c r="B207">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C207" s="12">
         <v>9</v>
@@ -8490,7 +8490,7 @@
         <v>38</v>
       </c>
       <c r="B208">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C208" s="12">
         <v>9</v>
@@ -8528,7 +8528,7 @@
         <v>38</v>
       </c>
       <c r="B209">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C209" s="12">
         <v>9</v>
@@ -8566,7 +8566,7 @@
         <v>38</v>
       </c>
       <c r="B210">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C210" s="12">
         <v>9</v>
@@ -8604,7 +8604,7 @@
         <v>38</v>
       </c>
       <c r="B211">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C211" s="12">
         <v>9</v>
@@ -8642,7 +8642,7 @@
         <v>38</v>
       </c>
       <c r="B212">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C212" s="12">
         <v>9</v>
@@ -8680,7 +8680,7 @@
         <v>38</v>
       </c>
       <c r="B213">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C213" s="12">
         <v>9</v>
@@ -8718,7 +8718,7 @@
         <v>38</v>
       </c>
       <c r="B214">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C214" s="12">
         <v>9</v>
@@ -8756,7 +8756,7 @@
         <v>38</v>
       </c>
       <c r="B215">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C215" s="12">
         <v>9</v>
@@ -8794,7 +8794,7 @@
         <v>38</v>
       </c>
       <c r="B216">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C216" s="12">
         <v>9</v>
@@ -8832,7 +8832,7 @@
         <v>38</v>
       </c>
       <c r="B217">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C217" s="12">
         <v>9</v>
@@ -8887,7 +8887,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8952,7 +8952,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C2" s="12">
         <v>7</v>
@@ -8990,7 +8990,7 @@
         <v>38</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C3" s="12">
         <v>7</v>
@@ -9028,7 +9028,7 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C4" s="12">
         <v>7</v>
@@ -9066,7 +9066,7 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C5" s="12">
         <v>7</v>
@@ -9104,7 +9104,7 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C6" s="12">
         <v>7</v>
@@ -9142,7 +9142,7 @@
         <v>38</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C7" s="12">
         <v>7</v>
@@ -9180,7 +9180,7 @@
         <v>38</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C8" s="12">
         <v>7</v>
@@ -9218,7 +9218,7 @@
         <v>38</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C9" s="12">
         <v>7</v>
@@ -9256,7 +9256,7 @@
         <v>38</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C10" s="12">
         <v>7</v>
@@ -9294,7 +9294,7 @@
         <v>38</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C11" s="12">
         <v>7</v>
@@ -9332,7 +9332,7 @@
         <v>38</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C12" s="12">
         <v>7</v>
@@ -9370,7 +9370,7 @@
         <v>38</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C13" s="12">
         <v>7</v>
@@ -9408,7 +9408,7 @@
         <v>38</v>
       </c>
       <c r="B14">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C14" s="12">
         <v>7</v>
@@ -9446,7 +9446,7 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C15" s="12">
         <v>7</v>
@@ -9484,7 +9484,7 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C16" s="12">
         <v>7</v>
@@ -9522,7 +9522,7 @@
         <v>38</v>
       </c>
       <c r="B17">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C17" s="12">
         <v>7</v>
@@ -9560,7 +9560,7 @@
         <v>38</v>
       </c>
       <c r="B18">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C18" s="12">
         <v>7</v>
@@ -9598,7 +9598,7 @@
         <v>38</v>
       </c>
       <c r="B19">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C19" s="12">
         <v>7</v>
@@ -9636,7 +9636,7 @@
         <v>38</v>
       </c>
       <c r="B20">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C20" s="12">
         <v>7</v>
@@ -9674,7 +9674,7 @@
         <v>38</v>
       </c>
       <c r="B21">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C21" s="12">
         <v>7</v>
@@ -9712,7 +9712,7 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C22" s="12">
         <v>7</v>
@@ -9750,7 +9750,7 @@
         <v>38</v>
       </c>
       <c r="B23">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C23" s="12">
         <v>7</v>
@@ -9788,7 +9788,7 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C24" s="12">
         <v>7</v>
@@ -9826,7 +9826,7 @@
         <v>38</v>
       </c>
       <c r="B25">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C25" s="12">
         <v>7</v>
@@ -9864,7 +9864,7 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C26" s="12">
         <v>7</v>
@@ -9902,7 +9902,7 @@
         <v>38</v>
       </c>
       <c r="B27">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C27" s="12">
         <v>7</v>
@@ -9940,7 +9940,7 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C28" s="12">
         <v>7</v>
@@ -9978,7 +9978,7 @@
         <v>38</v>
       </c>
       <c r="B29">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C29" s="12">
         <v>7</v>
@@ -10016,7 +10016,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C30" s="12">
         <v>7</v>
@@ -10054,7 +10054,7 @@
         <v>38</v>
       </c>
       <c r="B31">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C31" s="12">
         <v>7</v>
@@ -10092,7 +10092,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C32" s="12">
         <v>7</v>
@@ -10130,7 +10130,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C33" s="12">
         <v>7</v>
@@ -10168,7 +10168,7 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C34" s="12">
         <v>7</v>
@@ -10206,7 +10206,7 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C35" s="12">
         <v>7</v>
@@ -10244,7 +10244,7 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C36" s="12">
         <v>7</v>
@@ -10282,7 +10282,7 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C37" s="12">
         <v>7</v>
@@ -10320,7 +10320,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C38" s="12">
         <v>7</v>
@@ -10358,7 +10358,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C39" s="12">
         <v>7</v>
@@ -10396,7 +10396,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C40" s="12">
         <v>7</v>
@@ -10434,7 +10434,7 @@
         <v>38</v>
       </c>
       <c r="B41">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C41" s="12">
         <v>7</v>
@@ -10472,7 +10472,7 @@
         <v>38</v>
       </c>
       <c r="B42">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C42" s="12">
         <v>7</v>
@@ -10510,7 +10510,7 @@
         <v>38</v>
       </c>
       <c r="B43">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C43" s="12">
         <v>7</v>
@@ -10548,7 +10548,7 @@
         <v>38</v>
       </c>
       <c r="B44">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C44" s="12">
         <v>7</v>
@@ -10586,7 +10586,7 @@
         <v>38</v>
       </c>
       <c r="B45">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C45" s="12">
         <v>7</v>
@@ -10624,7 +10624,7 @@
         <v>38</v>
       </c>
       <c r="B46">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C46" s="12">
         <v>7</v>
@@ -10662,7 +10662,7 @@
         <v>38</v>
       </c>
       <c r="B47">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C47" s="12">
         <v>7</v>
@@ -10700,7 +10700,7 @@
         <v>38</v>
       </c>
       <c r="B48">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C48" s="12">
         <v>7</v>
@@ -10738,7 +10738,7 @@
         <v>38</v>
       </c>
       <c r="B49">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C49" s="12">
         <v>7</v>
@@ -10776,7 +10776,7 @@
         <v>38</v>
       </c>
       <c r="B50">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C50" s="12">
         <v>7</v>
@@ -10814,7 +10814,7 @@
         <v>38</v>
       </c>
       <c r="B51">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C51" s="12">
         <v>7</v>
@@ -10852,7 +10852,7 @@
         <v>38</v>
       </c>
       <c r="B52">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C52" s="12">
         <v>7</v>
@@ -10890,7 +10890,7 @@
         <v>38</v>
       </c>
       <c r="B53">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C53" s="12">
         <v>7</v>
@@ -10928,7 +10928,7 @@
         <v>38</v>
       </c>
       <c r="B54">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C54" s="12">
         <v>7</v>
@@ -10966,7 +10966,7 @@
         <v>38</v>
       </c>
       <c r="B55">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C55" s="12">
         <v>7</v>
@@ -11004,7 +11004,7 @@
         <v>38</v>
       </c>
       <c r="B56">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C56" s="12">
         <v>7</v>
@@ -11042,7 +11042,7 @@
         <v>38</v>
       </c>
       <c r="B57">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C57" s="12">
         <v>7</v>
@@ -11080,7 +11080,7 @@
         <v>38</v>
       </c>
       <c r="B58">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C58" s="12">
         <v>7</v>
@@ -11118,7 +11118,7 @@
         <v>38</v>
       </c>
       <c r="B59">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C59" s="12">
         <v>7</v>
@@ -11156,7 +11156,7 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C60" s="12">
         <v>7</v>
@@ -11194,7 +11194,7 @@
         <v>38</v>
       </c>
       <c r="B61">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C61" s="12">
         <v>7</v>
@@ -11232,7 +11232,7 @@
         <v>38</v>
       </c>
       <c r="B62">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C62" s="12">
         <v>7</v>
@@ -11270,7 +11270,7 @@
         <v>38</v>
       </c>
       <c r="B63">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C63" s="12">
         <v>7</v>
@@ -11308,7 +11308,7 @@
         <v>38</v>
       </c>
       <c r="B64">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C64" s="12">
         <v>7</v>
@@ -11346,7 +11346,7 @@
         <v>38</v>
       </c>
       <c r="B65">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C65" s="12">
         <v>7</v>
@@ -11384,7 +11384,7 @@
         <v>38</v>
       </c>
       <c r="B66">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C66" s="12">
         <v>7</v>
@@ -11422,7 +11422,7 @@
         <v>38</v>
       </c>
       <c r="B67">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C67" s="12">
         <v>7</v>
@@ -11460,7 +11460,7 @@
         <v>38</v>
       </c>
       <c r="B68">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C68" s="12">
         <v>7</v>
@@ -11498,7 +11498,7 @@
         <v>38</v>
       </c>
       <c r="B69">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C69" s="12">
         <v>7</v>
@@ -11536,7 +11536,7 @@
         <v>38</v>
       </c>
       <c r="B70">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C70" s="12">
         <v>7</v>
@@ -11574,7 +11574,7 @@
         <v>38</v>
       </c>
       <c r="B71">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C71" s="12">
         <v>7</v>
@@ -11612,7 +11612,7 @@
         <v>38</v>
       </c>
       <c r="B72">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C72" s="12">
         <v>7</v>
@@ -11650,7 +11650,7 @@
         <v>38</v>
       </c>
       <c r="B73">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C73" s="12">
         <v>7</v>
@@ -11688,7 +11688,7 @@
         <v>38</v>
       </c>
       <c r="B74">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C74" s="12">
         <v>7</v>
@@ -11726,7 +11726,7 @@
         <v>38</v>
       </c>
       <c r="B75">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C75" s="12">
         <v>7</v>
@@ -11764,7 +11764,7 @@
         <v>38</v>
       </c>
       <c r="B76">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C76" s="12">
         <v>7</v>
@@ -11802,7 +11802,7 @@
         <v>38</v>
       </c>
       <c r="B77">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C77" s="12">
         <v>7</v>
@@ -11840,7 +11840,7 @@
         <v>38</v>
       </c>
       <c r="B78">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C78" s="12">
         <v>7</v>
@@ -11878,7 +11878,7 @@
         <v>38</v>
       </c>
       <c r="B79">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C79" s="12">
         <v>7</v>
@@ -11916,7 +11916,7 @@
         <v>38</v>
       </c>
       <c r="B80">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C80" s="12">
         <v>7</v>
@@ -11954,7 +11954,7 @@
         <v>38</v>
       </c>
       <c r="B81">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C81" s="12">
         <v>7</v>
@@ -11992,7 +11992,7 @@
         <v>38</v>
       </c>
       <c r="B82">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C82" s="12">
         <v>7</v>
@@ -12030,7 +12030,7 @@
         <v>38</v>
       </c>
       <c r="B83">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C83" s="12">
         <v>7</v>
@@ -12068,7 +12068,7 @@
         <v>38</v>
       </c>
       <c r="B84">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C84" s="12">
         <v>7</v>
@@ -12106,7 +12106,7 @@
         <v>38</v>
       </c>
       <c r="B85">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C85" s="12">
         <v>7</v>
@@ -12144,7 +12144,7 @@
         <v>38</v>
       </c>
       <c r="B86">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C86" s="12">
         <v>7</v>
@@ -12182,7 +12182,7 @@
         <v>38</v>
       </c>
       <c r="B87">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C87" s="12">
         <v>7</v>
@@ -12220,7 +12220,7 @@
         <v>38</v>
       </c>
       <c r="B88">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C88" s="12">
         <v>7</v>
@@ -12258,7 +12258,7 @@
         <v>38</v>
       </c>
       <c r="B89">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C89" s="12">
         <v>7</v>
@@ -12296,7 +12296,7 @@
         <v>38</v>
       </c>
       <c r="B90">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C90" s="12">
         <v>7</v>
@@ -12334,7 +12334,7 @@
         <v>38</v>
       </c>
       <c r="B91">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C91" s="12">
         <v>7</v>
@@ -12372,7 +12372,7 @@
         <v>38</v>
       </c>
       <c r="B92">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C92" s="12">
         <v>7</v>
@@ -12410,7 +12410,7 @@
         <v>38</v>
       </c>
       <c r="B93">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C93" s="12">
         <v>7</v>
@@ -12448,7 +12448,7 @@
         <v>38</v>
       </c>
       <c r="B94">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C94" s="12">
         <v>7</v>
@@ -12486,7 +12486,7 @@
         <v>38</v>
       </c>
       <c r="B95">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C95" s="12">
         <v>7</v>
@@ -12524,7 +12524,7 @@
         <v>38</v>
       </c>
       <c r="B96">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C96" s="12">
         <v>7</v>
@@ -12562,7 +12562,7 @@
         <v>38</v>
       </c>
       <c r="B97">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C97" s="12">
         <v>7</v>
@@ -12600,7 +12600,7 @@
         <v>38</v>
       </c>
       <c r="B98">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C98" s="12">
         <v>7</v>
@@ -12638,7 +12638,7 @@
         <v>38</v>
       </c>
       <c r="B99">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C99" s="12">
         <v>7</v>
@@ -12676,7 +12676,7 @@
         <v>38</v>
       </c>
       <c r="B100">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C100" s="12">
         <v>7</v>
@@ -12714,7 +12714,7 @@
         <v>38</v>
       </c>
       <c r="B101">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C101" s="12">
         <v>7</v>
@@ -12752,7 +12752,7 @@
         <v>38</v>
       </c>
       <c r="B102">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C102" s="12">
         <v>7</v>
@@ -12790,7 +12790,7 @@
         <v>38</v>
       </c>
       <c r="B103">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C103" s="12">
         <v>7</v>
@@ -12828,7 +12828,7 @@
         <v>38</v>
       </c>
       <c r="B104">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C104" s="12">
         <v>7</v>
@@ -12866,7 +12866,7 @@
         <v>38</v>
       </c>
       <c r="B105">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C105" s="12">
         <v>7</v>
@@ -12904,7 +12904,7 @@
         <v>38</v>
       </c>
       <c r="B106">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C106" s="12">
         <v>7</v>
@@ -12942,7 +12942,7 @@
         <v>38</v>
       </c>
       <c r="B107">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C107" s="12">
         <v>7</v>
@@ -12980,7 +12980,7 @@
         <v>38</v>
       </c>
       <c r="B108">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C108" s="12">
         <v>7</v>
@@ -13018,7 +13018,7 @@
         <v>38</v>
       </c>
       <c r="B109">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C109" s="12">
         <v>7</v>
@@ -13056,7 +13056,7 @@
         <v>38</v>
       </c>
       <c r="B110">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C110" s="12">
         <v>7</v>
@@ -13094,7 +13094,7 @@
         <v>38</v>
       </c>
       <c r="B111">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C111" s="12">
         <v>7</v>
@@ -13132,7 +13132,7 @@
         <v>38</v>
       </c>
       <c r="B112">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C112" s="12">
         <v>7</v>
@@ -13170,7 +13170,7 @@
         <v>38</v>
       </c>
       <c r="B113">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C113" s="12">
         <v>7</v>
@@ -13208,7 +13208,7 @@
         <v>38</v>
       </c>
       <c r="B114">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C114" s="12">
         <v>7</v>
@@ -13246,7 +13246,7 @@
         <v>38</v>
       </c>
       <c r="B115">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C115" s="12">
         <v>7</v>
@@ -13284,7 +13284,7 @@
         <v>38</v>
       </c>
       <c r="B116">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C116" s="12">
         <v>7</v>
@@ -13322,7 +13322,7 @@
         <v>38</v>
       </c>
       <c r="B117">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C117" s="12">
         <v>7</v>
@@ -13360,7 +13360,7 @@
         <v>38</v>
       </c>
       <c r="B118">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C118" s="12">
         <v>7</v>
@@ -13398,7 +13398,7 @@
         <v>38</v>
       </c>
       <c r="B119">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C119" s="12">
         <v>7</v>
@@ -13436,7 +13436,7 @@
         <v>38</v>
       </c>
       <c r="B120">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C120" s="12">
         <v>7</v>
@@ -13474,7 +13474,7 @@
         <v>38</v>
       </c>
       <c r="B121">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C121" s="12">
         <v>7</v>
@@ -13512,7 +13512,7 @@
         <v>38</v>
       </c>
       <c r="B122">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C122" s="12">
         <v>7</v>
@@ -13550,7 +13550,7 @@
         <v>38</v>
       </c>
       <c r="B123">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C123" s="12">
         <v>7</v>
@@ -13588,7 +13588,7 @@
         <v>38</v>
       </c>
       <c r="B124">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C124" s="12">
         <v>7</v>
@@ -13626,7 +13626,7 @@
         <v>38</v>
       </c>
       <c r="B125">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C125" s="12">
         <v>7</v>
@@ -13664,7 +13664,7 @@
         <v>38</v>
       </c>
       <c r="B126">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C126" s="12">
         <v>7</v>
@@ -13702,7 +13702,7 @@
         <v>38</v>
       </c>
       <c r="B127">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C127" s="12">
         <v>7</v>
@@ -13740,7 +13740,7 @@
         <v>38</v>
       </c>
       <c r="B128">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C128" s="12">
         <v>7</v>
@@ -13778,7 +13778,7 @@
         <v>38</v>
       </c>
       <c r="B129">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C129" s="12">
         <v>7</v>
@@ -13816,7 +13816,7 @@
         <v>38</v>
       </c>
       <c r="B130">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C130" s="12">
         <v>7</v>
@@ -13854,7 +13854,7 @@
         <v>38</v>
       </c>
       <c r="B131">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C131" s="12">
         <v>7</v>
@@ -13892,7 +13892,7 @@
         <v>38</v>
       </c>
       <c r="B132">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C132" s="12">
         <v>7</v>
@@ -13930,7 +13930,7 @@
         <v>38</v>
       </c>
       <c r="B133">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C133" s="12">
         <v>7</v>
@@ -13968,7 +13968,7 @@
         <v>38</v>
       </c>
       <c r="B134">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C134" s="12">
         <v>7</v>
@@ -14006,7 +14006,7 @@
         <v>38</v>
       </c>
       <c r="B135">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C135" s="12">
         <v>7</v>
@@ -14044,7 +14044,7 @@
         <v>38</v>
       </c>
       <c r="B136">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C136" s="12">
         <v>7</v>
@@ -14082,7 +14082,7 @@
         <v>38</v>
       </c>
       <c r="B137">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C137" s="12">
         <v>7</v>
@@ -14120,7 +14120,7 @@
         <v>38</v>
       </c>
       <c r="B138">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C138" s="12">
         <v>7</v>
@@ -14158,7 +14158,7 @@
         <v>38</v>
       </c>
       <c r="B139">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C139" s="12">
         <v>7</v>
@@ -14196,7 +14196,7 @@
         <v>38</v>
       </c>
       <c r="B140">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C140" s="12">
         <v>7</v>
@@ -14234,7 +14234,7 @@
         <v>38</v>
       </c>
       <c r="B141">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C141" s="12">
         <v>7</v>
@@ -14272,7 +14272,7 @@
         <v>38</v>
       </c>
       <c r="B142">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C142" s="12">
         <v>7</v>
@@ -14310,7 +14310,7 @@
         <v>38</v>
       </c>
       <c r="B143">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C143" s="12">
         <v>7</v>
@@ -14348,7 +14348,7 @@
         <v>38</v>
       </c>
       <c r="B144">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C144" s="12">
         <v>7</v>
@@ -14386,7 +14386,7 @@
         <v>38</v>
       </c>
       <c r="B145">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C145" s="12">
         <v>7</v>
@@ -14424,7 +14424,7 @@
         <v>38</v>
       </c>
       <c r="B146">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C146" s="12">
         <v>7</v>
@@ -14462,7 +14462,7 @@
         <v>38</v>
       </c>
       <c r="B147">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C147" s="12">
         <v>7</v>
@@ -14500,7 +14500,7 @@
         <v>38</v>
       </c>
       <c r="B148">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C148" s="12">
         <v>7</v>
@@ -14538,7 +14538,7 @@
         <v>38</v>
       </c>
       <c r="B149">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C149" s="12">
         <v>7</v>
@@ -14576,7 +14576,7 @@
         <v>38</v>
       </c>
       <c r="B150">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C150" s="12">
         <v>7</v>
@@ -14614,7 +14614,7 @@
         <v>38</v>
       </c>
       <c r="B151">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C151" s="12">
         <v>7</v>
@@ -14652,7 +14652,7 @@
         <v>38</v>
       </c>
       <c r="B152">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C152" s="12">
         <v>7</v>
@@ -14690,7 +14690,7 @@
         <v>38</v>
       </c>
       <c r="B153">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C153" s="12">
         <v>7</v>
@@ -14728,7 +14728,7 @@
         <v>38</v>
       </c>
       <c r="B154">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C154" s="12">
         <v>7</v>
@@ -14766,7 +14766,7 @@
         <v>38</v>
       </c>
       <c r="B155">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C155" s="12">
         <v>7</v>
@@ -14804,7 +14804,7 @@
         <v>38</v>
       </c>
       <c r="B156">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C156" s="12">
         <v>7</v>
@@ -14842,7 +14842,7 @@
         <v>38</v>
       </c>
       <c r="B157">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C157" s="12">
         <v>7</v>
@@ -14880,7 +14880,7 @@
         <v>38</v>
       </c>
       <c r="B158">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C158" s="12">
         <v>7</v>
@@ -14918,7 +14918,7 @@
         <v>38</v>
       </c>
       <c r="B159">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C159" s="12">
         <v>7</v>
@@ -14956,7 +14956,7 @@
         <v>38</v>
       </c>
       <c r="B160">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C160" s="12">
         <v>7</v>
@@ -14994,7 +14994,7 @@
         <v>38</v>
       </c>
       <c r="B161">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C161" s="12">
         <v>7</v>
@@ -15032,7 +15032,7 @@
         <v>38</v>
       </c>
       <c r="B162">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C162" s="12">
         <v>7</v>
@@ -15070,7 +15070,7 @@
         <v>38</v>
       </c>
       <c r="B163">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C163" s="12">
         <v>7</v>
@@ -15108,7 +15108,7 @@
         <v>38</v>
       </c>
       <c r="B164">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C164" s="12">
         <v>7</v>
@@ -15146,7 +15146,7 @@
         <v>38</v>
       </c>
       <c r="B165">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C165" s="12">
         <v>7</v>
@@ -15184,7 +15184,7 @@
         <v>38</v>
       </c>
       <c r="B166">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C166" s="12">
         <v>7</v>
@@ -15222,7 +15222,7 @@
         <v>38</v>
       </c>
       <c r="B167">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C167" s="12">
         <v>7</v>
@@ -15260,7 +15260,7 @@
         <v>38</v>
       </c>
       <c r="B168">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C168" s="12">
         <v>7</v>
@@ -15298,7 +15298,7 @@
         <v>38</v>
       </c>
       <c r="B169">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C169" s="12">
         <v>7</v>
@@ -15336,7 +15336,7 @@
         <v>38</v>
       </c>
       <c r="B170">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C170" s="12">
         <v>7</v>
@@ -15374,7 +15374,7 @@
         <v>38</v>
       </c>
       <c r="B171">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C171" s="12">
         <v>7</v>
@@ -15412,7 +15412,7 @@
         <v>38</v>
       </c>
       <c r="B172">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C172" s="12">
         <v>7</v>
@@ -15450,7 +15450,7 @@
         <v>38</v>
       </c>
       <c r="B173">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C173" s="12">
         <v>7</v>
@@ -15488,7 +15488,7 @@
         <v>38</v>
       </c>
       <c r="B174">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C174" s="12">
         <v>7</v>
@@ -15526,7 +15526,7 @@
         <v>38</v>
       </c>
       <c r="B175">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C175" s="12">
         <v>7</v>
@@ -15564,7 +15564,7 @@
         <v>38</v>
       </c>
       <c r="B176">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C176" s="12">
         <v>7</v>
@@ -15602,7 +15602,7 @@
         <v>38</v>
       </c>
       <c r="B177">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C177" s="12">
         <v>7</v>
@@ -15640,7 +15640,7 @@
         <v>38</v>
       </c>
       <c r="B178">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C178" s="12">
         <v>7</v>
@@ -15678,7 +15678,7 @@
         <v>38</v>
       </c>
       <c r="B179">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C179" s="12">
         <v>7</v>
@@ -15716,7 +15716,7 @@
         <v>38</v>
       </c>
       <c r="B180">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C180" s="12">
         <v>7</v>
@@ -15754,7 +15754,7 @@
         <v>38</v>
       </c>
       <c r="B181">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C181" s="12">
         <v>7</v>
@@ -15792,7 +15792,7 @@
         <v>38</v>
       </c>
       <c r="B182">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C182" s="12">
         <v>7</v>
@@ -15830,7 +15830,7 @@
         <v>38</v>
       </c>
       <c r="B183">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C183" s="12">
         <v>7</v>
@@ -15868,7 +15868,7 @@
         <v>38</v>
       </c>
       <c r="B184">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C184" s="12">
         <v>7</v>
@@ -15906,7 +15906,7 @@
         <v>38</v>
       </c>
       <c r="B185">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C185" s="12">
         <v>7</v>
@@ -15944,7 +15944,7 @@
         <v>38</v>
       </c>
       <c r="B186">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C186" s="12">
         <v>7</v>
@@ -15982,7 +15982,7 @@
         <v>38</v>
       </c>
       <c r="B187">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C187" s="12">
         <v>7</v>
@@ -16020,7 +16020,7 @@
         <v>38</v>
       </c>
       <c r="B188">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C188" s="12">
         <v>7</v>
@@ -16058,7 +16058,7 @@
         <v>38</v>
       </c>
       <c r="B189">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C189" s="12">
         <v>7</v>
@@ -16096,7 +16096,7 @@
         <v>38</v>
       </c>
       <c r="B190">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C190" s="12">
         <v>7</v>
@@ -16134,7 +16134,7 @@
         <v>38</v>
       </c>
       <c r="B191">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C191" s="12">
         <v>7</v>
@@ -16172,7 +16172,7 @@
         <v>38</v>
       </c>
       <c r="B192">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C192" s="12">
         <v>7</v>
@@ -16210,7 +16210,7 @@
         <v>38</v>
       </c>
       <c r="B193">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C193" s="12">
         <v>7</v>
@@ -16248,7 +16248,7 @@
         <v>38</v>
       </c>
       <c r="B194">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C194" s="12">
         <v>7</v>
@@ -16286,7 +16286,7 @@
         <v>38</v>
       </c>
       <c r="B195">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C195" s="12">
         <v>7</v>
@@ -16324,7 +16324,7 @@
         <v>38</v>
       </c>
       <c r="B196">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C196" s="12">
         <v>7</v>
@@ -16362,7 +16362,7 @@
         <v>38</v>
       </c>
       <c r="B197">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C197" s="12">
         <v>7</v>
@@ -16400,7 +16400,7 @@
         <v>38</v>
       </c>
       <c r="B198">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C198" s="12">
         <v>7</v>
@@ -16438,7 +16438,7 @@
         <v>38</v>
       </c>
       <c r="B199">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C199" s="12">
         <v>7</v>
@@ -16476,7 +16476,7 @@
         <v>38</v>
       </c>
       <c r="B200">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C200" s="12">
         <v>7</v>
@@ -16514,7 +16514,7 @@
         <v>38</v>
       </c>
       <c r="B201">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C201" s="12">
         <v>7</v>
@@ -16552,7 +16552,7 @@
         <v>38</v>
       </c>
       <c r="B202">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C202" s="12">
         <v>7</v>
@@ -16590,7 +16590,7 @@
         <v>38</v>
       </c>
       <c r="B203">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C203" s="12">
         <v>7</v>
@@ -16628,7 +16628,7 @@
         <v>38</v>
       </c>
       <c r="B204">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C204" s="12">
         <v>7</v>
@@ -16666,7 +16666,7 @@
         <v>38</v>
       </c>
       <c r="B205">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C205" s="12">
         <v>7</v>
@@ -16704,7 +16704,7 @@
         <v>38</v>
       </c>
       <c r="B206">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C206" s="12">
         <v>7</v>
@@ -16742,7 +16742,7 @@
         <v>38</v>
       </c>
       <c r="B207">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C207" s="12">
         <v>7</v>
@@ -16780,7 +16780,7 @@
         <v>38</v>
       </c>
       <c r="B208">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C208" s="12">
         <v>7</v>
@@ -16818,7 +16818,7 @@
         <v>38</v>
       </c>
       <c r="B209">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C209" s="12">
         <v>7</v>
@@ -16856,7 +16856,7 @@
         <v>38</v>
       </c>
       <c r="B210">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C210" s="12">
         <v>7</v>
@@ -16894,7 +16894,7 @@
         <v>38</v>
       </c>
       <c r="B211">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C211" s="12">
         <v>7</v>
@@ -16932,7 +16932,7 @@
         <v>38</v>
       </c>
       <c r="B212">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C212" s="12">
         <v>7</v>
@@ -16970,7 +16970,7 @@
         <v>38</v>
       </c>
       <c r="B213">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C213" s="12">
         <v>7</v>
@@ -17008,7 +17008,7 @@
         <v>38</v>
       </c>
       <c r="B214">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C214" s="12">
         <v>7</v>
@@ -17046,7 +17046,7 @@
         <v>38</v>
       </c>
       <c r="B215">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C215" s="12">
         <v>7</v>
@@ -17084,7 +17084,7 @@
         <v>38</v>
       </c>
       <c r="B216">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C216" s="12">
         <v>7</v>
@@ -17122,7 +17122,7 @@
         <v>38</v>
       </c>
       <c r="B217">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C217" s="12">
         <v>7</v>
@@ -17160,7 +17160,7 @@
         <v>38</v>
       </c>
       <c r="B218">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C218" s="12">
         <v>7</v>
@@ -17198,7 +17198,7 @@
         <v>38</v>
       </c>
       <c r="B219">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C219" s="12">
         <v>7</v>
@@ -17236,7 +17236,7 @@
         <v>38</v>
       </c>
       <c r="B220">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C220" s="12">
         <v>7</v>
@@ -17274,7 +17274,7 @@
         <v>38</v>
       </c>
       <c r="B221">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C221" s="12">
         <v>7</v>
@@ -17312,7 +17312,7 @@
         <v>38</v>
       </c>
       <c r="B222">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C222" s="12">
         <v>7</v>
@@ -17350,7 +17350,7 @@
         <v>38</v>
       </c>
       <c r="B223">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C223" s="12">
         <v>7</v>
@@ -17388,7 +17388,7 @@
         <v>38</v>
       </c>
       <c r="B224">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C224" s="12">
         <v>7</v>
@@ -17426,7 +17426,7 @@
         <v>38</v>
       </c>
       <c r="B225">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C225" s="12">
         <v>7</v>
@@ -17464,7 +17464,7 @@
         <v>38</v>
       </c>
       <c r="B226">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C226" s="12">
         <v>7</v>
@@ -17502,7 +17502,7 @@
         <v>38</v>
       </c>
       <c r="B227">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C227" s="12">
         <v>7</v>
@@ -17540,7 +17540,7 @@
         <v>38</v>
       </c>
       <c r="B228">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C228" s="12">
         <v>7</v>
@@ -17578,7 +17578,7 @@
         <v>38</v>
       </c>
       <c r="B229">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C229" s="12">
         <v>7</v>
@@ -17616,7 +17616,7 @@
         <v>38</v>
       </c>
       <c r="B230">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C230" s="12">
         <v>7</v>
@@ -17654,7 +17654,7 @@
         <v>38</v>
       </c>
       <c r="B231">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C231" s="12">
         <v>7</v>
@@ -17692,7 +17692,7 @@
         <v>38</v>
       </c>
       <c r="B232">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C232" s="12">
         <v>7</v>
@@ -17730,7 +17730,7 @@
         <v>38</v>
       </c>
       <c r="B233">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C233" s="12">
         <v>7</v>
@@ -17768,7 +17768,7 @@
         <v>38</v>
       </c>
       <c r="B234">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C234" s="12">
         <v>7</v>
@@ -17806,7 +17806,7 @@
         <v>38</v>
       </c>
       <c r="B235">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C235" s="12">
         <v>7</v>
@@ -17844,7 +17844,7 @@
         <v>38</v>
       </c>
       <c r="B236">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C236" s="12">
         <v>7</v>
@@ -17882,7 +17882,7 @@
         <v>38</v>
       </c>
       <c r="B237">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C237" s="12">
         <v>7</v>
@@ -17920,7 +17920,7 @@
         <v>38</v>
       </c>
       <c r="B238">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C238" s="12">
         <v>7</v>
@@ -17958,7 +17958,7 @@
         <v>38</v>
       </c>
       <c r="B239">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C239" s="12">
         <v>7</v>
@@ -17996,7 +17996,7 @@
         <v>38</v>
       </c>
       <c r="B240">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C240" s="12">
         <v>7</v>
@@ -18034,7 +18034,7 @@
         <v>38</v>
       </c>
       <c r="B241">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C241" s="12">
         <v>7</v>
@@ -18072,7 +18072,7 @@
         <v>38</v>
       </c>
       <c r="B242">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C242" s="12">
         <v>7</v>
@@ -18110,7 +18110,7 @@
         <v>38</v>
       </c>
       <c r="B243">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C243" s="12">
         <v>7</v>
@@ -18148,7 +18148,7 @@
         <v>38</v>
       </c>
       <c r="B244">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C244" s="12">
         <v>7</v>
@@ -18186,7 +18186,7 @@
         <v>38</v>
       </c>
       <c r="B245">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C245" s="12">
         <v>7</v>
@@ -18224,7 +18224,7 @@
         <v>38</v>
       </c>
       <c r="B246">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C246" s="12">
         <v>7</v>
@@ -18262,7 +18262,7 @@
         <v>38</v>
       </c>
       <c r="B247">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C247" s="12">
         <v>7</v>
@@ -18300,7 +18300,7 @@
         <v>38</v>
       </c>
       <c r="B248">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C248" s="12">
         <v>7</v>
@@ -18338,7 +18338,7 @@
         <v>38</v>
       </c>
       <c r="B249">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C249" s="12">
         <v>7</v>
@@ -18376,7 +18376,7 @@
         <v>38</v>
       </c>
       <c r="B250">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C250" s="12">
         <v>7</v>
@@ -18414,7 +18414,7 @@
         <v>38</v>
       </c>
       <c r="B251">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C251" s="12">
         <v>7</v>
@@ -18452,7 +18452,7 @@
         <v>38</v>
       </c>
       <c r="B252">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C252" s="12">
         <v>7</v>
@@ -18490,7 +18490,7 @@
         <v>38</v>
       </c>
       <c r="B253">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C253" s="12">
         <v>7</v>
@@ -18528,7 +18528,7 @@
         <v>38</v>
       </c>
       <c r="B254">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C254" s="12">
         <v>7</v>
@@ -18596,7 +18596,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18662,7 +18662,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C2" s="12">
         <v>4.5</v>
@@ -18702,7 +18702,7 @@
         <v>38</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C3" s="12">
         <v>4.5</v>
@@ -18742,7 +18742,7 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C4" s="12">
         <v>4.5</v>
@@ -18782,7 +18782,7 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C5" s="12">
         <v>4.5</v>
@@ -18822,7 +18822,7 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C6" s="12">
         <v>4.5</v>
@@ -18862,7 +18862,7 @@
         <v>38</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C7" s="12">
         <v>4.5</v>
@@ -18902,7 +18902,7 @@
         <v>38</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C8" s="12">
         <v>4.5</v>
@@ -18942,7 +18942,7 @@
         <v>38</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C9" s="12">
         <v>4.5</v>
@@ -18982,7 +18982,7 @@
         <v>38</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C10" s="12">
         <v>4.5</v>
@@ -19022,7 +19022,7 @@
         <v>38</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C11" s="12">
         <v>4.5</v>
@@ -19062,7 +19062,7 @@
         <v>38</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C12" s="12">
         <v>4.5</v>
@@ -19102,7 +19102,7 @@
         <v>38</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C13" s="12">
         <v>4.5</v>
@@ -19142,7 +19142,7 @@
         <v>38</v>
       </c>
       <c r="B14">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C14" s="12">
         <v>4.5</v>
@@ -19182,7 +19182,7 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C15" s="12">
         <v>4.5</v>
@@ -19222,7 +19222,7 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C16" s="12">
         <v>4.5</v>
@@ -19262,7 +19262,7 @@
         <v>38</v>
       </c>
       <c r="B17">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C17" s="12">
         <v>4.5</v>
@@ -19302,7 +19302,7 @@
         <v>38</v>
       </c>
       <c r="B18">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C18" s="12">
         <v>4.5</v>
@@ -19342,7 +19342,7 @@
         <v>38</v>
       </c>
       <c r="B19">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C19" s="12">
         <v>4.5</v>
@@ -19382,7 +19382,7 @@
         <v>38</v>
       </c>
       <c r="B20">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C20" s="12">
         <v>4.5</v>
@@ -19422,7 +19422,7 @@
         <v>38</v>
       </c>
       <c r="B21">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C21" s="12">
         <v>4.5</v>
@@ -19462,7 +19462,7 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C22" s="12">
         <v>4.5</v>
@@ -19502,7 +19502,7 @@
         <v>38</v>
       </c>
       <c r="B23">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C23" s="12">
         <v>4.5</v>
@@ -19542,7 +19542,7 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C24" s="12">
         <v>4.5</v>
@@ -19582,7 +19582,7 @@
         <v>38</v>
       </c>
       <c r="B25">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C25" s="12">
         <v>4.5</v>
@@ -19622,7 +19622,7 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C26" s="12">
         <v>4.5</v>
@@ -19662,7 +19662,7 @@
         <v>38</v>
       </c>
       <c r="B27">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C27" s="12">
         <v>4.5</v>
@@ -19702,7 +19702,7 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C28" s="12">
         <v>4.5</v>
@@ -19742,7 +19742,7 @@
         <v>38</v>
       </c>
       <c r="B29">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C29" s="12">
         <v>4.5</v>
@@ -19782,7 +19782,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C30" s="12">
         <v>4.5</v>
@@ -19822,7 +19822,7 @@
         <v>38</v>
       </c>
       <c r="B31">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C31" s="12">
         <v>4.5</v>
@@ -19862,7 +19862,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C32" s="12">
         <v>4.5</v>
@@ -19902,7 +19902,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C33" s="12">
         <v>4.5</v>
@@ -19942,7 +19942,7 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C34" s="12">
         <v>4.5</v>
@@ -19982,7 +19982,7 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C35" s="12">
         <v>4.5</v>
@@ -20022,7 +20022,7 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C36" s="12">
         <v>4.5</v>
@@ -20062,7 +20062,7 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C37" s="12">
         <v>4.5</v>
@@ -20102,7 +20102,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C38" s="12">
         <v>4.5</v>
@@ -20142,7 +20142,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C39" s="12">
         <v>4.5</v>
@@ -20182,7 +20182,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C40" s="12">
         <v>4.5</v>
@@ -20222,7 +20222,7 @@
         <v>38</v>
       </c>
       <c r="B41">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C41" s="12">
         <v>4.5</v>
@@ -20262,7 +20262,7 @@
         <v>38</v>
       </c>
       <c r="B42">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C42" s="12">
         <v>4.5</v>
@@ -20302,7 +20302,7 @@
         <v>38</v>
       </c>
       <c r="B43">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C43" s="12">
         <v>4.5</v>
@@ -20342,7 +20342,7 @@
         <v>38</v>
       </c>
       <c r="B44">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C44" s="12">
         <v>4.5</v>
@@ -20382,7 +20382,7 @@
         <v>38</v>
       </c>
       <c r="B45">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C45" s="12">
         <v>4.5</v>
@@ -20422,7 +20422,7 @@
         <v>38</v>
       </c>
       <c r="B46">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C46" s="12">
         <v>4.5</v>
@@ -20462,7 +20462,7 @@
         <v>38</v>
       </c>
       <c r="B47">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C47" s="12">
         <v>4.5</v>
@@ -20502,7 +20502,7 @@
         <v>38</v>
       </c>
       <c r="B48">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C48" s="12">
         <v>4.5</v>
@@ -20542,7 +20542,7 @@
         <v>38</v>
       </c>
       <c r="B49">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C49" s="12">
         <v>4.5</v>
@@ -20582,7 +20582,7 @@
         <v>38</v>
       </c>
       <c r="B50">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C50" s="12">
         <v>4.5</v>
@@ -20622,7 +20622,7 @@
         <v>38</v>
       </c>
       <c r="B51">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C51" s="12">
         <v>4.5</v>
@@ -20662,7 +20662,7 @@
         <v>38</v>
       </c>
       <c r="B52">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C52" s="12">
         <v>4.5</v>
@@ -20702,7 +20702,7 @@
         <v>38</v>
       </c>
       <c r="B53">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C53" s="12">
         <v>4.5</v>
@@ -20742,7 +20742,7 @@
         <v>38</v>
       </c>
       <c r="B54">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C54" s="12">
         <v>4.5</v>
@@ -20782,7 +20782,7 @@
         <v>38</v>
       </c>
       <c r="B55">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C55" s="12">
         <v>4.5</v>
@@ -20822,7 +20822,7 @@
         <v>38</v>
       </c>
       <c r="B56">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C56" s="12">
         <v>4.5</v>
@@ -20862,7 +20862,7 @@
         <v>38</v>
       </c>
       <c r="B57">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C57" s="12">
         <v>4.5</v>
@@ -20902,7 +20902,7 @@
         <v>38</v>
       </c>
       <c r="B58">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C58" s="12">
         <v>4.5</v>
@@ -20942,7 +20942,7 @@
         <v>38</v>
       </c>
       <c r="B59">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C59" s="12">
         <v>4.5</v>
@@ -20982,7 +20982,7 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C60" s="12">
         <v>4.5</v>
@@ -21022,7 +21022,7 @@
         <v>38</v>
       </c>
       <c r="B61">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C61" s="12">
         <v>4.5</v>
@@ -21062,7 +21062,7 @@
         <v>38</v>
       </c>
       <c r="B62">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C62" s="12">
         <v>4.5</v>
@@ -21102,7 +21102,7 @@
         <v>38</v>
       </c>
       <c r="B63">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C63" s="12">
         <v>4.5</v>
@@ -21142,7 +21142,7 @@
         <v>38</v>
       </c>
       <c r="B64">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C64" s="12">
         <v>4.5</v>
@@ -21182,7 +21182,7 @@
         <v>38</v>
       </c>
       <c r="B65">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C65" s="12">
         <v>4.5</v>
@@ -21222,7 +21222,7 @@
         <v>38</v>
       </c>
       <c r="B66">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C66" s="12">
         <v>4.5</v>
@@ -21262,7 +21262,7 @@
         <v>38</v>
       </c>
       <c r="B67">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C67" s="12">
         <v>4.5</v>
@@ -21302,7 +21302,7 @@
         <v>38</v>
       </c>
       <c r="B68">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C68" s="12">
         <v>4.5</v>
@@ -21342,7 +21342,7 @@
         <v>38</v>
       </c>
       <c r="B69">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C69" s="12">
         <v>4.5</v>
@@ -21382,7 +21382,7 @@
         <v>38</v>
       </c>
       <c r="B70">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C70" s="12">
         <v>4.5</v>
@@ -21422,7 +21422,7 @@
         <v>38</v>
       </c>
       <c r="B71">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C71" s="12">
         <v>4.5</v>
@@ -21462,7 +21462,7 @@
         <v>38</v>
       </c>
       <c r="B72">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C72" s="12">
         <v>4.5</v>
@@ -21502,7 +21502,7 @@
         <v>38</v>
       </c>
       <c r="B73">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C73" s="12">
         <v>4.5</v>
@@ -21542,7 +21542,7 @@
         <v>38</v>
       </c>
       <c r="B74">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C74" s="12">
         <v>4.5</v>
@@ -21582,7 +21582,7 @@
         <v>38</v>
       </c>
       <c r="B75">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C75" s="12">
         <v>4.5</v>
@@ -21622,7 +21622,7 @@
         <v>38</v>
       </c>
       <c r="B76">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C76" s="12">
         <v>4.5</v>
@@ -21662,7 +21662,7 @@
         <v>38</v>
       </c>
       <c r="B77">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C77" s="12">
         <v>4.5</v>
@@ -21702,7 +21702,7 @@
         <v>38</v>
       </c>
       <c r="B78">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C78" s="12">
         <v>4.5</v>
@@ -21742,7 +21742,7 @@
         <v>38</v>
       </c>
       <c r="B79">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C79" s="12">
         <v>4.5</v>
@@ -21782,7 +21782,7 @@
         <v>38</v>
       </c>
       <c r="B80">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C80" s="12">
         <v>4.5</v>
@@ -21822,7 +21822,7 @@
         <v>38</v>
       </c>
       <c r="B81">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C81" s="12">
         <v>4.5</v>
@@ -21862,7 +21862,7 @@
         <v>38</v>
       </c>
       <c r="B82">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C82" s="12">
         <v>4.5</v>
@@ -21902,7 +21902,7 @@
         <v>38</v>
       </c>
       <c r="B83">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C83" s="12">
         <v>4.5</v>
@@ -21942,7 +21942,7 @@
         <v>38</v>
       </c>
       <c r="B84">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C84" s="12">
         <v>4.5</v>
@@ -21982,7 +21982,7 @@
         <v>38</v>
       </c>
       <c r="B85">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C85" s="12">
         <v>4.5</v>
@@ -22022,7 +22022,7 @@
         <v>38</v>
       </c>
       <c r="B86">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C86" s="12">
         <v>4.5</v>
@@ -22062,7 +22062,7 @@
         <v>38</v>
       </c>
       <c r="B87">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C87" s="12">
         <v>4.5</v>
@@ -22102,7 +22102,7 @@
         <v>38</v>
       </c>
       <c r="B88">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C88" s="12">
         <v>4.5</v>
@@ -22142,7 +22142,7 @@
         <v>38</v>
       </c>
       <c r="B89">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C89" s="12">
         <v>4.5</v>
@@ -22182,7 +22182,7 @@
         <v>38</v>
       </c>
       <c r="B90">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C90" s="12">
         <v>4.5</v>
@@ -22222,7 +22222,7 @@
         <v>38</v>
       </c>
       <c r="B91">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C91" s="12">
         <v>4.5</v>
@@ -22262,7 +22262,7 @@
         <v>38</v>
       </c>
       <c r="B92">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C92" s="12">
         <v>4.5</v>
@@ -22302,7 +22302,7 @@
         <v>38</v>
       </c>
       <c r="B93">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C93" s="12">
         <v>4.5</v>
@@ -22342,7 +22342,7 @@
         <v>38</v>
       </c>
       <c r="B94">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C94" s="12">
         <v>4.5</v>
@@ -22382,7 +22382,7 @@
         <v>38</v>
       </c>
       <c r="B95">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C95" s="12">
         <v>4.5</v>
@@ -22422,7 +22422,7 @@
         <v>38</v>
       </c>
       <c r="B96">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C96" s="12">
         <v>4.5</v>
@@ -22462,7 +22462,7 @@
         <v>38</v>
       </c>
       <c r="B97">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C97" s="12">
         <v>4.5</v>
@@ -22502,7 +22502,7 @@
         <v>38</v>
       </c>
       <c r="B98">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C98" s="12">
         <v>4.5</v>
@@ -22542,7 +22542,7 @@
         <v>38</v>
       </c>
       <c r="B99">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C99" s="12">
         <v>4.5</v>
@@ -22582,7 +22582,7 @@
         <v>38</v>
       </c>
       <c r="B100">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C100" s="12">
         <v>4.5</v>
@@ -22622,7 +22622,7 @@
         <v>38</v>
       </c>
       <c r="B101">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C101" s="12">
         <v>4.5</v>
@@ -22662,7 +22662,7 @@
         <v>38</v>
       </c>
       <c r="B102">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C102" s="12">
         <v>4.5</v>
@@ -22702,7 +22702,7 @@
         <v>38</v>
       </c>
       <c r="B103">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C103" s="12">
         <v>4.5</v>
@@ -22742,7 +22742,7 @@
         <v>38</v>
       </c>
       <c r="B104">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C104" s="12">
         <v>4.5</v>
@@ -22782,7 +22782,7 @@
         <v>38</v>
       </c>
       <c r="B105">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C105" s="12">
         <v>4.5</v>
@@ -22822,7 +22822,7 @@
         <v>38</v>
       </c>
       <c r="B106">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C106" s="12">
         <v>4.5</v>
@@ -22862,7 +22862,7 @@
         <v>38</v>
       </c>
       <c r="B107">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C107" s="12">
         <v>4.5</v>
@@ -22902,7 +22902,7 @@
         <v>38</v>
       </c>
       <c r="B108">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C108" s="12">
         <v>4.5</v>
@@ -22942,7 +22942,7 @@
         <v>38</v>
       </c>
       <c r="B109">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C109" s="12">
         <v>4.5</v>
@@ -22982,7 +22982,7 @@
         <v>38</v>
       </c>
       <c r="B110">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C110" s="12">
         <v>4.5</v>
@@ -23022,7 +23022,7 @@
         <v>38</v>
       </c>
       <c r="B111">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C111" s="12">
         <v>4.5</v>
@@ -23062,7 +23062,7 @@
         <v>38</v>
       </c>
       <c r="B112">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C112" s="12">
         <v>4.5</v>
@@ -23102,7 +23102,7 @@
         <v>38</v>
       </c>
       <c r="B113">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C113" s="12">
         <v>4.5</v>
@@ -23142,7 +23142,7 @@
         <v>38</v>
       </c>
       <c r="B114">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C114" s="12">
         <v>4.5</v>
@@ -23182,7 +23182,7 @@
         <v>38</v>
       </c>
       <c r="B115">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C115" s="12">
         <v>4.5</v>
@@ -23222,7 +23222,7 @@
         <v>38</v>
       </c>
       <c r="B116">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C116" s="12">
         <v>4.5</v>
@@ -23262,7 +23262,7 @@
         <v>38</v>
       </c>
       <c r="B117">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C117" s="12">
         <v>4.5</v>
@@ -23302,7 +23302,7 @@
         <v>38</v>
       </c>
       <c r="B118">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C118" s="12">
         <v>4.5</v>
@@ -23342,7 +23342,7 @@
         <v>38</v>
       </c>
       <c r="B119">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C119" s="12">
         <v>4.5</v>
@@ -23382,7 +23382,7 @@
         <v>38</v>
       </c>
       <c r="B120">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C120" s="12">
         <v>4.5</v>
@@ -23422,7 +23422,7 @@
         <v>38</v>
       </c>
       <c r="B121">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C121" s="12">
         <v>4.5</v>
@@ -23462,7 +23462,7 @@
         <v>38</v>
       </c>
       <c r="B122">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C122" s="12">
         <v>4.5</v>
@@ -23502,7 +23502,7 @@
         <v>38</v>
       </c>
       <c r="B123">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C123" s="12">
         <v>4.5</v>
@@ -23542,7 +23542,7 @@
         <v>38</v>
       </c>
       <c r="B124">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C124" s="12">
         <v>4.5</v>
@@ -23582,7 +23582,7 @@
         <v>38</v>
       </c>
       <c r="B125">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C125" s="12">
         <v>4.5</v>
@@ -23622,7 +23622,7 @@
         <v>38</v>
       </c>
       <c r="B126">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C126" s="12">
         <v>4.5</v>
@@ -23662,7 +23662,7 @@
         <v>38</v>
       </c>
       <c r="B127">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C127" s="12">
         <v>4.5</v>
@@ -23702,7 +23702,7 @@
         <v>38</v>
       </c>
       <c r="B128">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C128" s="12">
         <v>4.5</v>
@@ -23742,7 +23742,7 @@
         <v>38</v>
       </c>
       <c r="B129">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C129" s="12">
         <v>4.5</v>
@@ -23782,7 +23782,7 @@
         <v>38</v>
       </c>
       <c r="B130">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C130" s="12">
         <v>4.5</v>
@@ -23822,7 +23822,7 @@
         <v>38</v>
       </c>
       <c r="B131">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C131" s="12">
         <v>4.5</v>
@@ -23862,7 +23862,7 @@
         <v>38</v>
       </c>
       <c r="B132">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C132" s="12">
         <v>4.5</v>
@@ -23902,7 +23902,7 @@
         <v>38</v>
       </c>
       <c r="B133">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C133" s="12">
         <v>4.5</v>
@@ -23942,7 +23942,7 @@
         <v>38</v>
       </c>
       <c r="B134">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C134" s="12">
         <v>4.5</v>
@@ -23982,7 +23982,7 @@
         <v>38</v>
       </c>
       <c r="B135">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C135" s="12">
         <v>4.5</v>
@@ -24022,7 +24022,7 @@
         <v>38</v>
       </c>
       <c r="B136">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C136" s="12">
         <v>4.5</v>
@@ -24062,7 +24062,7 @@
         <v>38</v>
       </c>
       <c r="B137">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C137" s="12">
         <v>4.5</v>
@@ -24102,7 +24102,7 @@
         <v>38</v>
       </c>
       <c r="B138">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C138" s="12">
         <v>4.5</v>
@@ -24142,7 +24142,7 @@
         <v>38</v>
       </c>
       <c r="B139">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C139" s="12">
         <v>4.5</v>
@@ -24182,7 +24182,7 @@
         <v>38</v>
       </c>
       <c r="B140">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C140" s="12">
         <v>4.5</v>
@@ -24222,7 +24222,7 @@
         <v>38</v>
       </c>
       <c r="B141">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C141" s="12">
         <v>4.5</v>
@@ -24262,7 +24262,7 @@
         <v>38</v>
       </c>
       <c r="B142">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C142" s="12">
         <v>4.5</v>
@@ -24302,7 +24302,7 @@
         <v>38</v>
       </c>
       <c r="B143">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C143" s="12">
         <v>4.5</v>
@@ -24342,7 +24342,7 @@
         <v>38</v>
       </c>
       <c r="B144">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C144" s="12">
         <v>4.5</v>
@@ -24382,7 +24382,7 @@
         <v>38</v>
       </c>
       <c r="B145">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C145" s="12">
         <v>4.5</v>
@@ -24422,7 +24422,7 @@
         <v>38</v>
       </c>
       <c r="B146">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C146" s="12">
         <v>4.5</v>
@@ -24462,7 +24462,7 @@
         <v>38</v>
       </c>
       <c r="B147">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C147" s="12">
         <v>4.5</v>
@@ -24502,7 +24502,7 @@
         <v>38</v>
       </c>
       <c r="B148">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C148" s="12">
         <v>4.5</v>
@@ -24542,7 +24542,7 @@
         <v>38</v>
       </c>
       <c r="B149">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C149" s="12">
         <v>4.5</v>
@@ -24582,7 +24582,7 @@
         <v>38</v>
       </c>
       <c r="B150">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C150" s="12">
         <v>4.5</v>
@@ -24622,7 +24622,7 @@
         <v>38</v>
       </c>
       <c r="B151">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C151" s="12">
         <v>4.5</v>
@@ -24662,7 +24662,7 @@
         <v>38</v>
       </c>
       <c r="B152">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C152" s="12">
         <v>4.5</v>
@@ -24702,7 +24702,7 @@
         <v>38</v>
       </c>
       <c r="B153">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C153" s="12">
         <v>4.5</v>
@@ -24742,7 +24742,7 @@
         <v>38</v>
       </c>
       <c r="B154">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C154" s="12">
         <v>4.5</v>
@@ -24782,7 +24782,7 @@
         <v>38</v>
       </c>
       <c r="B155">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C155" s="12">
         <v>4.5</v>
@@ -24822,7 +24822,7 @@
         <v>38</v>
       </c>
       <c r="B156">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C156" s="12">
         <v>4.5</v>
@@ -24862,7 +24862,7 @@
         <v>38</v>
       </c>
       <c r="B157">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C157" s="12">
         <v>4.5</v>
@@ -24902,7 +24902,7 @@
         <v>38</v>
       </c>
       <c r="B158">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C158" s="12">
         <v>4.5</v>
@@ -24942,7 +24942,7 @@
         <v>38</v>
       </c>
       <c r="B159">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C159" s="12">
         <v>4.5</v>
@@ -24982,7 +24982,7 @@
         <v>38</v>
       </c>
       <c r="B160">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C160" s="12">
         <v>4.5</v>
@@ -25022,7 +25022,7 @@
         <v>38</v>
       </c>
       <c r="B161">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C161" s="12">
         <v>4.5</v>
@@ -25062,7 +25062,7 @@
         <v>38</v>
       </c>
       <c r="B162">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C162" s="12">
         <v>4.5</v>
@@ -25102,7 +25102,7 @@
         <v>38</v>
       </c>
       <c r="B163">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C163" s="12">
         <v>4.5</v>
@@ -25142,7 +25142,7 @@
         <v>38</v>
       </c>
       <c r="B164">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C164" s="12">
         <v>4.5</v>
@@ -25182,7 +25182,7 @@
         <v>38</v>
       </c>
       <c r="B165">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C165" s="12">
         <v>4.5</v>
@@ -25222,7 +25222,7 @@
         <v>38</v>
       </c>
       <c r="B166">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C166" s="12">
         <v>4.5</v>
@@ -25262,7 +25262,7 @@
         <v>38</v>
       </c>
       <c r="B167">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C167" s="12">
         <v>4.5</v>
@@ -25302,7 +25302,7 @@
         <v>38</v>
       </c>
       <c r="B168">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C168" s="12">
         <v>4.5</v>
@@ -25342,7 +25342,7 @@
         <v>38</v>
       </c>
       <c r="B169">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C169" s="12">
         <v>4.5</v>
@@ -25382,7 +25382,7 @@
         <v>38</v>
       </c>
       <c r="B170">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C170" s="12">
         <v>4.5</v>
@@ -25422,7 +25422,7 @@
         <v>38</v>
       </c>
       <c r="B171">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C171" s="12">
         <v>4.5</v>
@@ -25462,7 +25462,7 @@
         <v>38</v>
       </c>
       <c r="B172">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C172" s="12">
         <v>4.5</v>
@@ -25502,7 +25502,7 @@
         <v>38</v>
       </c>
       <c r="B173">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C173" s="12">
         <v>4.5</v>
@@ -25542,7 +25542,7 @@
         <v>38</v>
       </c>
       <c r="B174">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C174" s="12">
         <v>4.5</v>
@@ -25582,7 +25582,7 @@
         <v>38</v>
       </c>
       <c r="B175">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C175" s="12">
         <v>4.5</v>
@@ -25622,7 +25622,7 @@
         <v>38</v>
       </c>
       <c r="B176">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C176" s="12">
         <v>4.5</v>
@@ -25662,7 +25662,7 @@
         <v>38</v>
       </c>
       <c r="B177">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C177" s="12">
         <v>4.5</v>
@@ -25702,7 +25702,7 @@
         <v>38</v>
       </c>
       <c r="B178">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C178" s="12">
         <v>4.5</v>
@@ -25742,7 +25742,7 @@
         <v>38</v>
       </c>
       <c r="B179">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C179" s="12">
         <v>4.5</v>
@@ -25782,7 +25782,7 @@
         <v>38</v>
       </c>
       <c r="B180">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C180" s="12">
         <v>4.5</v>
@@ -25822,7 +25822,7 @@
         <v>38</v>
       </c>
       <c r="B181">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C181" s="12">
         <v>4.5</v>
@@ -25862,7 +25862,7 @@
         <v>38</v>
       </c>
       <c r="B182">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C182" s="12">
         <v>4.5</v>
@@ -25902,7 +25902,7 @@
         <v>38</v>
       </c>
       <c r="B183">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C183" s="12">
         <v>4.5</v>
@@ -25942,7 +25942,7 @@
         <v>38</v>
       </c>
       <c r="B184">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C184" s="12">
         <v>4.5</v>
@@ -25982,7 +25982,7 @@
         <v>38</v>
       </c>
       <c r="B185">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C185" s="12">
         <v>4.5</v>
@@ -26022,7 +26022,7 @@
         <v>38</v>
       </c>
       <c r="B186">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C186" s="12">
         <v>4.5</v>
@@ -26062,7 +26062,7 @@
         <v>38</v>
       </c>
       <c r="B187">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C187" s="12">
         <v>4.5</v>
@@ -26102,7 +26102,7 @@
         <v>38</v>
       </c>
       <c r="B188">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C188" s="12">
         <v>4.5</v>
@@ -26142,7 +26142,7 @@
         <v>38</v>
       </c>
       <c r="B189">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C189" s="12">
         <v>4.5</v>
@@ -26182,7 +26182,7 @@
         <v>38</v>
       </c>
       <c r="B190">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C190" s="12">
         <v>4.5</v>
@@ -26222,7 +26222,7 @@
         <v>38</v>
       </c>
       <c r="B191">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C191" s="12">
         <v>4.5</v>
@@ -26262,7 +26262,7 @@
         <v>38</v>
       </c>
       <c r="B192">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C192" s="12">
         <v>4.5</v>
@@ -26302,7 +26302,7 @@
         <v>38</v>
       </c>
       <c r="B193">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C193" s="12">
         <v>4.5</v>
@@ -26342,7 +26342,7 @@
         <v>38</v>
       </c>
       <c r="B194">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C194" s="12">
         <v>4.5</v>
@@ -26382,7 +26382,7 @@
         <v>38</v>
       </c>
       <c r="B195">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C195" s="12">
         <v>4.5</v>
@@ -26422,7 +26422,7 @@
         <v>38</v>
       </c>
       <c r="B196">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C196" s="12">
         <v>4.5</v>
@@ -26462,7 +26462,7 @@
         <v>38</v>
       </c>
       <c r="B197">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C197" s="12">
         <v>4.5</v>
@@ -26502,7 +26502,7 @@
         <v>38</v>
       </c>
       <c r="B198">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C198" s="12">
         <v>4.5</v>
@@ -26542,7 +26542,7 @@
         <v>38</v>
       </c>
       <c r="B199">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C199" s="12">
         <v>4.5</v>
@@ -26582,7 +26582,7 @@
         <v>38</v>
       </c>
       <c r="B200">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C200" s="12">
         <v>4.5</v>
@@ -26622,7 +26622,7 @@
         <v>38</v>
       </c>
       <c r="B201">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C201" s="12">
         <v>4.5</v>
@@ -26662,7 +26662,7 @@
         <v>38</v>
       </c>
       <c r="B202">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C202" s="12">
         <v>4.5</v>
@@ -26702,7 +26702,7 @@
         <v>38</v>
       </c>
       <c r="B203">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C203" s="12">
         <v>4.5</v>
@@ -26742,7 +26742,7 @@
         <v>38</v>
       </c>
       <c r="B204">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C204" s="12">
         <v>4.5</v>
@@ -26782,7 +26782,7 @@
         <v>38</v>
       </c>
       <c r="B205">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C205" s="12">
         <v>4.5</v>
@@ -26822,7 +26822,7 @@
         <v>38</v>
       </c>
       <c r="B206">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C206" s="12">
         <v>4.5</v>
@@ -26862,7 +26862,7 @@
         <v>38</v>
       </c>
       <c r="B207">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C207" s="12">
         <v>4.5</v>
@@ -26902,7 +26902,7 @@
         <v>38</v>
       </c>
       <c r="B208">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C208" s="12">
         <v>4.5</v>
@@ -26942,7 +26942,7 @@
         <v>38</v>
       </c>
       <c r="B209">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C209" s="12">
         <v>4.5</v>
@@ -26982,7 +26982,7 @@
         <v>38</v>
       </c>
       <c r="B210">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C210" s="12">
         <v>4.5</v>
@@ -27022,7 +27022,7 @@
         <v>38</v>
       </c>
       <c r="B211">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C211" s="12">
         <v>4.5</v>
@@ -27062,7 +27062,7 @@
         <v>38</v>
       </c>
       <c r="B212">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C212" s="12">
         <v>4.5</v>
@@ -27100,7 +27100,7 @@
         <v>38</v>
       </c>
       <c r="B213">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C213" s="12">
         <v>4.5</v>
@@ -27138,7 +27138,7 @@
         <v>38</v>
       </c>
       <c r="B214">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C214" s="12">
         <v>4.5</v>
@@ -27176,7 +27176,7 @@
         <v>38</v>
       </c>
       <c r="B215">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C215" s="12">
         <v>4.5</v>
@@ -27214,7 +27214,7 @@
         <v>38</v>
       </c>
       <c r="B216">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C216" s="12">
         <v>4.5</v>
@@ -27252,7 +27252,7 @@
         <v>38</v>
       </c>
       <c r="B217">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C217" s="12">
         <v>4.5</v>
@@ -27290,7 +27290,7 @@
         <v>38</v>
       </c>
       <c r="B218">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C218" s="12">
         <v>4.5</v>
@@ -27328,7 +27328,7 @@
         <v>38</v>
       </c>
       <c r="B219">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C219" s="12">
         <v>4.5</v>
@@ -27366,7 +27366,7 @@
         <v>38</v>
       </c>
       <c r="B220">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C220" s="12">
         <v>4.5</v>
@@ -27404,7 +27404,7 @@
         <v>38</v>
       </c>
       <c r="B221">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C221" s="12">
         <v>4.5</v>
@@ -27442,7 +27442,7 @@
         <v>38</v>
       </c>
       <c r="B222">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C222" s="12">
         <v>4.5</v>
@@ -27480,7 +27480,7 @@
         <v>38</v>
       </c>
       <c r="B223">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C223" s="12">
         <v>4.5</v>
@@ -27518,7 +27518,7 @@
         <v>38</v>
       </c>
       <c r="B224">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C224" s="12">
         <v>4.5</v>
@@ -27556,7 +27556,7 @@
         <v>38</v>
       </c>
       <c r="B225">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C225" s="12">
         <v>4.5</v>
@@ -27594,7 +27594,7 @@
         <v>38</v>
       </c>
       <c r="B226">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C226" s="12">
         <v>4.5</v>
@@ -27632,7 +27632,7 @@
         <v>38</v>
       </c>
       <c r="B227">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C227" s="12">
         <v>4.5</v>
@@ -27670,7 +27670,7 @@
         <v>38</v>
       </c>
       <c r="B228">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C228" s="12">
         <v>4.5</v>
@@ -27708,7 +27708,7 @@
         <v>38</v>
       </c>
       <c r="B229">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C229" s="12">
         <v>4.5</v>
@@ -27746,7 +27746,7 @@
         <v>38</v>
       </c>
       <c r="B230">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C230" s="12">
         <v>4.5</v>
@@ -27784,7 +27784,7 @@
         <v>38</v>
       </c>
       <c r="B231">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C231" s="12">
         <v>4.5</v>
@@ -27822,7 +27822,7 @@
         <v>38</v>
       </c>
       <c r="B232">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C232" s="12">
         <v>4.5</v>
@@ -27860,7 +27860,7 @@
         <v>38</v>
       </c>
       <c r="B233">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C233" s="12">
         <v>4.5</v>
@@ -27898,7 +27898,7 @@
         <v>38</v>
       </c>
       <c r="B234">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C234" s="12">
         <v>4.5</v>
@@ -27936,7 +27936,7 @@
         <v>38</v>
       </c>
       <c r="B235">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C235" s="12">
         <v>4.5</v>
@@ -27974,7 +27974,7 @@
         <v>38</v>
       </c>
       <c r="B236">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C236" s="12">
         <v>4.5</v>
@@ -28012,7 +28012,7 @@
         <v>38</v>
       </c>
       <c r="B237">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C237" s="12">
         <v>4.5</v>
@@ -28050,7 +28050,7 @@
         <v>38</v>
       </c>
       <c r="B238">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C238" s="12">
         <v>4.5</v>
@@ -28088,7 +28088,7 @@
         <v>38</v>
       </c>
       <c r="B239">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C239" s="12">
         <v>4.5</v>
@@ -28126,7 +28126,7 @@
         <v>38</v>
       </c>
       <c r="B240">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C240" s="12">
         <v>4.5</v>
@@ -28164,7 +28164,7 @@
         <v>38</v>
       </c>
       <c r="B241">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C241" s="12">
         <v>4.5</v>
@@ -28202,7 +28202,7 @@
         <v>38</v>
       </c>
       <c r="B242">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C242" s="12">
         <v>4.5</v>
@@ -28240,7 +28240,7 @@
         <v>38</v>
       </c>
       <c r="B243">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C243" s="12">
         <v>4.5</v>
@@ -28278,7 +28278,7 @@
         <v>38</v>
       </c>
       <c r="B244">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C244" s="12">
         <v>4.5</v>
@@ -28316,7 +28316,7 @@
         <v>38</v>
       </c>
       <c r="B245">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C245" s="12">
         <v>4.5</v>
@@ -28354,7 +28354,7 @@
         <v>38</v>
       </c>
       <c r="B246">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C246" s="12">
         <v>4.5</v>
@@ -28392,7 +28392,7 @@
         <v>38</v>
       </c>
       <c r="B247">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C247" s="12">
         <v>4.5</v>
@@ -28430,7 +28430,7 @@
         <v>38</v>
       </c>
       <c r="B248">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C248" s="12">
         <v>4.5</v>
@@ -28468,7 +28468,7 @@
         <v>38</v>
       </c>
       <c r="B249">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C249" s="12">
         <v>4.5</v>
@@ -28506,7 +28506,7 @@
         <v>38</v>
       </c>
       <c r="B250">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C250" s="12">
         <v>4.5</v>
@@ -28544,7 +28544,7 @@
         <v>38</v>
       </c>
       <c r="B251">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C251" s="12">
         <v>4.5</v>
@@ -28582,7 +28582,7 @@
         <v>38</v>
       </c>
       <c r="B252">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C252" s="12">
         <v>4.5</v>
@@ -28620,7 +28620,7 @@
         <v>38</v>
       </c>
       <c r="B253">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C253" s="12">
         <v>4.5</v>
@@ -28658,7 +28658,7 @@
         <v>38</v>
       </c>
       <c r="B254">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C254" s="12">
         <v>4.5</v>
@@ -28696,7 +28696,7 @@
         <v>38</v>
       </c>
       <c r="B255">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C255" s="12">
         <v>4.5</v>
@@ -28734,7 +28734,7 @@
         <v>38</v>
       </c>
       <c r="B256">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C256" s="12">
         <v>4.5</v>
@@ -28772,7 +28772,7 @@
         <v>38</v>
       </c>
       <c r="B257">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C257" s="12">
         <v>4.5</v>
@@ -28810,7 +28810,7 @@
         <v>38</v>
       </c>
       <c r="B258">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C258" s="12">
         <v>4.5</v>
@@ -28848,7 +28848,7 @@
         <v>38</v>
       </c>
       <c r="B259">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C259" s="12">
         <v>4.5</v>
@@ -28886,7 +28886,7 @@
         <v>38</v>
       </c>
       <c r="B260">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C260" s="12">
         <v>4.5</v>
@@ -28924,7 +28924,7 @@
         <v>38</v>
       </c>
       <c r="B261">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C261" s="12">
         <v>4.5</v>
@@ -28962,7 +28962,7 @@
         <v>38</v>
       </c>
       <c r="B262">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C262" s="12">
         <v>4.5</v>
@@ -29000,7 +29000,7 @@
         <v>38</v>
       </c>
       <c r="B263">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C263" s="12">
         <v>4.5</v>
@@ -29038,7 +29038,7 @@
         <v>38</v>
       </c>
       <c r="B264">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C264" s="12">
         <v>4.5</v>
@@ -29076,7 +29076,7 @@
         <v>38</v>
       </c>
       <c r="B265">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C265" s="12">
         <v>4.5</v>
@@ -29114,7 +29114,7 @@
         <v>38</v>
       </c>
       <c r="B266">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C266" s="12">
         <v>4.5</v>
@@ -29152,7 +29152,7 @@
         <v>38</v>
       </c>
       <c r="B267">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C267" s="12">
         <v>4.5</v>
@@ -29190,7 +29190,7 @@
         <v>38</v>
       </c>
       <c r="B268">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C268" s="12">
         <v>4.5</v>
@@ -29228,7 +29228,7 @@
         <v>38</v>
       </c>
       <c r="B269">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C269" s="12">
         <v>4.5</v>
@@ -29266,7 +29266,7 @@
         <v>38</v>
       </c>
       <c r="B270">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C270" s="12">
         <v>4.5</v>
@@ -29304,7 +29304,7 @@
         <v>38</v>
       </c>
       <c r="B271">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C271" s="12">
         <v>4.5</v>
@@ -29342,7 +29342,7 @@
         <v>38</v>
       </c>
       <c r="B272">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C272" s="12">
         <v>4.5</v>
@@ -29380,7 +29380,7 @@
         <v>38</v>
       </c>
       <c r="B273">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C273" s="12">
         <v>4.5</v>
@@ -29418,7 +29418,7 @@
         <v>38</v>
       </c>
       <c r="B274">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C274" s="12">
         <v>4.5</v>
@@ -29456,7 +29456,7 @@
         <v>38</v>
       </c>
       <c r="B275">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C275" s="12">
         <v>4.5</v>
@@ -29494,7 +29494,7 @@
         <v>38</v>
       </c>
       <c r="B276">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C276" s="12">
         <v>4.5</v>
@@ -29532,7 +29532,7 @@
         <v>38</v>
       </c>
       <c r="B277">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C277" s="12">
         <v>4.5</v>
@@ -29630,9 +29630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E0CD65-640D-6F4E-8955-F3331985C834}">
   <dimension ref="A1:AA287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B258" sqref="B258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29701,7 +29701,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C2" s="12">
         <v>2</v>
@@ -29741,7 +29741,7 @@
         <v>38</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C3" s="12">
         <v>2</v>
@@ -29792,7 +29792,7 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C4" s="12">
         <v>2</v>
@@ -29844,7 +29844,7 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C5" s="12">
         <v>2</v>
@@ -29895,7 +29895,7 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C6" s="12">
         <v>2</v>
@@ -29946,7 +29946,7 @@
         <v>38</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C7" s="12">
         <v>2</v>
@@ -29997,7 +29997,7 @@
         <v>38</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C8" s="12">
         <v>2</v>
@@ -30048,7 +30048,7 @@
         <v>38</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C9" s="12">
         <v>2</v>
@@ -30099,7 +30099,7 @@
         <v>38</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C10" s="12">
         <v>2</v>
@@ -30150,7 +30150,7 @@
         <v>38</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C11" s="12">
         <v>2</v>
@@ -30201,7 +30201,7 @@
         <v>38</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C12" s="12">
         <v>2</v>
@@ -30252,7 +30252,7 @@
         <v>38</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C13" s="12">
         <v>2</v>
@@ -30303,7 +30303,7 @@
         <v>38</v>
       </c>
       <c r="B14">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C14" s="12">
         <v>2</v>
@@ -30354,7 +30354,7 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C15" s="12">
         <v>2</v>
@@ -30405,7 +30405,7 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C16" s="12">
         <v>2</v>
@@ -30456,7 +30456,7 @@
         <v>38</v>
       </c>
       <c r="B17">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C17" s="12">
         <v>2</v>
@@ -30507,7 +30507,7 @@
         <v>38</v>
       </c>
       <c r="B18">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C18" s="12">
         <v>2</v>
@@ -30558,7 +30558,7 @@
         <v>38</v>
       </c>
       <c r="B19">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C19" s="12">
         <v>2</v>
@@ -30609,7 +30609,7 @@
         <v>38</v>
       </c>
       <c r="B20">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C20" s="12">
         <v>2</v>
@@ -30660,7 +30660,7 @@
         <v>38</v>
       </c>
       <c r="B21">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C21" s="12">
         <v>2</v>
@@ -30711,7 +30711,7 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C22" s="12">
         <v>2</v>
@@ -30762,7 +30762,7 @@
         <v>38</v>
       </c>
       <c r="B23">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C23" s="12">
         <v>2</v>
@@ -30813,7 +30813,7 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C24" s="12">
         <v>2</v>
@@ -30864,7 +30864,7 @@
         <v>38</v>
       </c>
       <c r="B25">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C25" s="12">
         <v>2</v>
@@ -30915,7 +30915,7 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C26" s="12">
         <v>2</v>
@@ -30966,7 +30966,7 @@
         <v>38</v>
       </c>
       <c r="B27">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C27" s="12">
         <v>2</v>
@@ -31017,7 +31017,7 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C28" s="12">
         <v>2</v>
@@ -31068,7 +31068,7 @@
         <v>38</v>
       </c>
       <c r="B29">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C29" s="12">
         <v>2</v>
@@ -31119,7 +31119,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C30" s="12">
         <v>2</v>
@@ -31170,7 +31170,7 @@
         <v>38</v>
       </c>
       <c r="B31">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C31" s="12">
         <v>2</v>
@@ -31221,7 +31221,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C32" s="12">
         <v>2</v>
@@ -31272,7 +31272,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C33" s="12">
         <v>2</v>
@@ -31323,7 +31323,7 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C34" s="12">
         <v>2</v>
@@ -31374,7 +31374,7 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C35" s="12">
         <v>2</v>
@@ -31425,7 +31425,7 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C36" s="12">
         <v>2</v>
@@ -31476,7 +31476,7 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C37" s="12">
         <v>2</v>
@@ -31527,7 +31527,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C38" s="12">
         <v>2</v>
@@ -31578,7 +31578,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C39" s="12">
         <v>2</v>
@@ -31629,7 +31629,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C40" s="12">
         <v>2</v>
@@ -31680,7 +31680,7 @@
         <v>38</v>
       </c>
       <c r="B41">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C41" s="12">
         <v>2</v>
@@ -31731,7 +31731,7 @@
         <v>38</v>
       </c>
       <c r="B42">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C42" s="12">
         <v>2</v>
@@ -31782,7 +31782,7 @@
         <v>38</v>
       </c>
       <c r="B43">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C43" s="12">
         <v>2</v>
@@ -31833,7 +31833,7 @@
         <v>38</v>
       </c>
       <c r="B44">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C44" s="12">
         <v>2</v>
@@ -31884,7 +31884,7 @@
         <v>38</v>
       </c>
       <c r="B45">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C45" s="12">
         <v>2</v>
@@ -31935,7 +31935,7 @@
         <v>38</v>
       </c>
       <c r="B46">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C46" s="12">
         <v>2</v>
@@ -31986,7 +31986,7 @@
         <v>38</v>
       </c>
       <c r="B47">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C47" s="12">
         <v>2</v>
@@ -32037,7 +32037,7 @@
         <v>38</v>
       </c>
       <c r="B48">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C48" s="12">
         <v>2</v>
@@ -32088,7 +32088,7 @@
         <v>38</v>
       </c>
       <c r="B49">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C49" s="12">
         <v>2</v>
@@ -32139,7 +32139,7 @@
         <v>38</v>
       </c>
       <c r="B50">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C50" s="12">
         <v>2</v>
@@ -32190,7 +32190,7 @@
         <v>38</v>
       </c>
       <c r="B51">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C51" s="12">
         <v>2</v>
@@ -32241,7 +32241,7 @@
         <v>38</v>
       </c>
       <c r="B52">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C52" s="12">
         <v>2</v>
@@ -32292,7 +32292,7 @@
         <v>38</v>
       </c>
       <c r="B53">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C53" s="12">
         <v>2</v>
@@ -32343,7 +32343,7 @@
         <v>38</v>
       </c>
       <c r="B54">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C54" s="12">
         <v>2</v>
@@ -32394,7 +32394,7 @@
         <v>38</v>
       </c>
       <c r="B55">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C55" s="12">
         <v>2</v>
@@ -32445,7 +32445,7 @@
         <v>38</v>
       </c>
       <c r="B56">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C56" s="12">
         <v>2</v>
@@ -32496,7 +32496,7 @@
         <v>38</v>
       </c>
       <c r="B57">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C57" s="12">
         <v>2</v>
@@ -32547,7 +32547,7 @@
         <v>38</v>
       </c>
       <c r="B58">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C58" s="12">
         <v>2</v>
@@ -32598,7 +32598,7 @@
         <v>38</v>
       </c>
       <c r="B59">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C59" s="12">
         <v>2</v>
@@ -32649,7 +32649,7 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C60" s="12">
         <v>2</v>
@@ -32700,7 +32700,7 @@
         <v>38</v>
       </c>
       <c r="B61">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C61" s="12">
         <v>2</v>
@@ -32751,7 +32751,7 @@
         <v>38</v>
       </c>
       <c r="B62">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C62" s="12">
         <v>2</v>
@@ -32802,7 +32802,7 @@
         <v>38</v>
       </c>
       <c r="B63">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C63" s="12">
         <v>2</v>
@@ -32853,7 +32853,7 @@
         <v>38</v>
       </c>
       <c r="B64">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C64" s="12">
         <v>2</v>
@@ -32904,7 +32904,7 @@
         <v>38</v>
       </c>
       <c r="B65">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C65" s="12">
         <v>2</v>
@@ -32955,7 +32955,7 @@
         <v>38</v>
       </c>
       <c r="B66">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C66" s="12">
         <v>2</v>
@@ -33006,7 +33006,7 @@
         <v>38</v>
       </c>
       <c r="B67">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C67" s="12">
         <v>2</v>
@@ -33057,7 +33057,7 @@
         <v>38</v>
       </c>
       <c r="B68">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C68" s="12">
         <v>2</v>
@@ -33108,7 +33108,7 @@
         <v>38</v>
       </c>
       <c r="B69">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C69" s="12">
         <v>2</v>
@@ -33159,7 +33159,7 @@
         <v>38</v>
       </c>
       <c r="B70">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C70" s="12">
         <v>2</v>
@@ -33210,7 +33210,7 @@
         <v>38</v>
       </c>
       <c r="B71">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C71" s="12">
         <v>2</v>
@@ -33261,7 +33261,7 @@
         <v>38</v>
       </c>
       <c r="B72">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C72" s="12">
         <v>2</v>
@@ -33312,7 +33312,7 @@
         <v>38</v>
       </c>
       <c r="B73">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C73" s="12">
         <v>2</v>
@@ -33363,7 +33363,7 @@
         <v>38</v>
       </c>
       <c r="B74">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C74" s="12">
         <v>2</v>
@@ -33414,7 +33414,7 @@
         <v>38</v>
       </c>
       <c r="B75">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C75" s="12">
         <v>2</v>
@@ -33465,7 +33465,7 @@
         <v>38</v>
       </c>
       <c r="B76">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C76" s="12">
         <v>2</v>
@@ -33516,7 +33516,7 @@
         <v>38</v>
       </c>
       <c r="B77">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C77" s="12">
         <v>2</v>
@@ -33567,7 +33567,7 @@
         <v>38</v>
       </c>
       <c r="B78">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C78" s="12">
         <v>2</v>
@@ -33618,7 +33618,7 @@
         <v>38</v>
       </c>
       <c r="B79">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C79" s="12">
         <v>2</v>
@@ -33669,7 +33669,7 @@
         <v>38</v>
       </c>
       <c r="B80">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C80" s="12">
         <v>2</v>
@@ -33720,7 +33720,7 @@
         <v>38</v>
       </c>
       <c r="B81">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C81" s="12">
         <v>2</v>
@@ -33771,7 +33771,7 @@
         <v>38</v>
       </c>
       <c r="B82">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C82" s="12">
         <v>2</v>
@@ -33822,7 +33822,7 @@
         <v>38</v>
       </c>
       <c r="B83">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C83" s="12">
         <v>2</v>
@@ -33873,7 +33873,7 @@
         <v>38</v>
       </c>
       <c r="B84">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C84" s="12">
         <v>2</v>
@@ -33924,7 +33924,7 @@
         <v>38</v>
       </c>
       <c r="B85">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C85" s="12">
         <v>2</v>
@@ -33975,7 +33975,7 @@
         <v>38</v>
       </c>
       <c r="B86">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C86" s="12">
         <v>2</v>
@@ -34026,7 +34026,7 @@
         <v>38</v>
       </c>
       <c r="B87">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C87" s="12">
         <v>2</v>
@@ -34077,7 +34077,7 @@
         <v>38</v>
       </c>
       <c r="B88">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C88" s="12">
         <v>2</v>
@@ -34128,7 +34128,7 @@
         <v>38</v>
       </c>
       <c r="B89">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C89" s="12">
         <v>2</v>
@@ -34179,7 +34179,7 @@
         <v>38</v>
       </c>
       <c r="B90">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C90" s="12">
         <v>2</v>
@@ -34230,7 +34230,7 @@
         <v>38</v>
       </c>
       <c r="B91">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C91" s="12">
         <v>2</v>
@@ -34281,7 +34281,7 @@
         <v>38</v>
       </c>
       <c r="B92">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C92" s="12">
         <v>2</v>
@@ -34332,7 +34332,7 @@
         <v>38</v>
       </c>
       <c r="B93">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C93" s="12">
         <v>2</v>
@@ -34383,7 +34383,7 @@
         <v>38</v>
       </c>
       <c r="B94">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C94" s="12">
         <v>2</v>
@@ -34434,7 +34434,7 @@
         <v>38</v>
       </c>
       <c r="B95">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C95" s="12">
         <v>2</v>
@@ -34485,7 +34485,7 @@
         <v>38</v>
       </c>
       <c r="B96">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C96" s="12">
         <v>2</v>
@@ -34536,7 +34536,7 @@
         <v>38</v>
       </c>
       <c r="B97">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C97" s="12">
         <v>2</v>
@@ -34587,7 +34587,7 @@
         <v>38</v>
       </c>
       <c r="B98">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C98" s="12">
         <v>2</v>
@@ -34638,7 +34638,7 @@
         <v>38</v>
       </c>
       <c r="B99">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C99" s="12">
         <v>2</v>
@@ -34689,7 +34689,7 @@
         <v>38</v>
       </c>
       <c r="B100">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C100" s="12">
         <v>2</v>
@@ -34740,7 +34740,7 @@
         <v>38</v>
       </c>
       <c r="B101">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C101" s="12">
         <v>2</v>
@@ -34791,7 +34791,7 @@
         <v>38</v>
       </c>
       <c r="B102">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C102" s="12">
         <v>2</v>
@@ -34842,7 +34842,7 @@
         <v>38</v>
       </c>
       <c r="B103">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C103" s="12">
         <v>2</v>
@@ -34893,7 +34893,7 @@
         <v>38</v>
       </c>
       <c r="B104">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C104" s="12">
         <v>2</v>
@@ -34944,7 +34944,7 @@
         <v>38</v>
       </c>
       <c r="B105">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C105" s="12">
         <v>2</v>
@@ -34995,7 +34995,7 @@
         <v>38</v>
       </c>
       <c r="B106">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C106" s="12">
         <v>2</v>
@@ -35046,7 +35046,7 @@
         <v>38</v>
       </c>
       <c r="B107">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C107" s="12">
         <v>2</v>
@@ -35097,7 +35097,7 @@
         <v>38</v>
       </c>
       <c r="B108">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C108" s="12">
         <v>2</v>
@@ -35148,7 +35148,7 @@
         <v>38</v>
       </c>
       <c r="B109">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C109" s="12">
         <v>2</v>
@@ -35199,7 +35199,7 @@
         <v>38</v>
       </c>
       <c r="B110">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C110" s="12">
         <v>2</v>
@@ -35250,7 +35250,7 @@
         <v>38</v>
       </c>
       <c r="B111">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C111" s="12">
         <v>2</v>
@@ -35301,7 +35301,7 @@
         <v>38</v>
       </c>
       <c r="B112">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C112" s="12">
         <v>2</v>
@@ -35352,7 +35352,7 @@
         <v>38</v>
       </c>
       <c r="B113">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C113" s="12">
         <v>2</v>
@@ -35403,7 +35403,7 @@
         <v>38</v>
       </c>
       <c r="B114">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C114" s="12">
         <v>2</v>
@@ -35454,7 +35454,7 @@
         <v>38</v>
       </c>
       <c r="B115">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C115" s="12">
         <v>2</v>
@@ -35505,7 +35505,7 @@
         <v>38</v>
       </c>
       <c r="B116">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C116" s="12">
         <v>2</v>
@@ -35556,7 +35556,7 @@
         <v>38</v>
       </c>
       <c r="B117">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C117" s="12">
         <v>2</v>
@@ -35607,7 +35607,7 @@
         <v>38</v>
       </c>
       <c r="B118">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C118" s="12">
         <v>2</v>
@@ -35658,7 +35658,7 @@
         <v>38</v>
       </c>
       <c r="B119">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C119" s="12">
         <v>2</v>
@@ -35709,7 +35709,7 @@
         <v>38</v>
       </c>
       <c r="B120">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C120" s="12">
         <v>2</v>
@@ -35760,7 +35760,7 @@
         <v>38</v>
       </c>
       <c r="B121">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C121" s="12">
         <v>2</v>
@@ -35811,7 +35811,7 @@
         <v>38</v>
       </c>
       <c r="B122">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C122" s="12">
         <v>2</v>
@@ -35862,7 +35862,7 @@
         <v>38</v>
       </c>
       <c r="B123">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C123" s="12">
         <v>2</v>
@@ -35913,7 +35913,7 @@
         <v>38</v>
       </c>
       <c r="B124">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C124" s="12">
         <v>2</v>
@@ -35964,7 +35964,7 @@
         <v>38</v>
       </c>
       <c r="B125">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C125" s="12">
         <v>2</v>
@@ -36015,7 +36015,7 @@
         <v>38</v>
       </c>
       <c r="B126">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C126" s="12">
         <v>2</v>
@@ -36066,7 +36066,7 @@
         <v>38</v>
       </c>
       <c r="B127">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C127" s="12">
         <v>2</v>
@@ -36117,7 +36117,7 @@
         <v>38</v>
       </c>
       <c r="B128">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C128" s="12">
         <v>2</v>
@@ -36168,7 +36168,7 @@
         <v>38</v>
       </c>
       <c r="B129">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C129" s="12">
         <v>2</v>
@@ -36219,7 +36219,7 @@
         <v>38</v>
       </c>
       <c r="B130">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C130" s="12">
         <v>2</v>
@@ -36270,7 +36270,7 @@
         <v>38</v>
       </c>
       <c r="B131">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C131" s="12">
         <v>2</v>
@@ -36321,7 +36321,7 @@
         <v>38</v>
       </c>
       <c r="B132">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C132" s="12">
         <v>2</v>
@@ -36372,7 +36372,7 @@
         <v>38</v>
       </c>
       <c r="B133">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C133" s="12">
         <v>2</v>
@@ -36423,7 +36423,7 @@
         <v>38</v>
       </c>
       <c r="B134">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C134" s="12">
         <v>2</v>
@@ -36474,7 +36474,7 @@
         <v>38</v>
       </c>
       <c r="B135">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C135" s="12">
         <v>2</v>
@@ -36525,7 +36525,7 @@
         <v>38</v>
       </c>
       <c r="B136">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C136" s="12">
         <v>2</v>
@@ -36576,7 +36576,7 @@
         <v>38</v>
       </c>
       <c r="B137">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C137" s="12">
         <v>2</v>
@@ -36627,7 +36627,7 @@
         <v>38</v>
       </c>
       <c r="B138">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C138" s="12">
         <v>2</v>
@@ -36678,7 +36678,7 @@
         <v>38</v>
       </c>
       <c r="B139">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C139" s="12">
         <v>2</v>
@@ -36729,7 +36729,7 @@
         <v>38</v>
       </c>
       <c r="B140">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C140" s="12">
         <v>2</v>
@@ -36780,7 +36780,7 @@
         <v>38</v>
       </c>
       <c r="B141">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C141" s="12">
         <v>2</v>
@@ -36831,7 +36831,7 @@
         <v>38</v>
       </c>
       <c r="B142">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C142" s="12">
         <v>2</v>
@@ -36882,7 +36882,7 @@
         <v>38</v>
       </c>
       <c r="B143">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C143" s="12">
         <v>2</v>
@@ -36933,7 +36933,7 @@
         <v>38</v>
       </c>
       <c r="B144">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C144" s="12">
         <v>2</v>
@@ -36984,7 +36984,7 @@
         <v>38</v>
       </c>
       <c r="B145">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C145" s="12">
         <v>2</v>
@@ -37035,7 +37035,7 @@
         <v>38</v>
       </c>
       <c r="B146">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C146" s="12">
         <v>2</v>
@@ -37086,7 +37086,7 @@
         <v>38</v>
       </c>
       <c r="B147">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C147" s="12">
         <v>2</v>
@@ -37137,7 +37137,7 @@
         <v>38</v>
       </c>
       <c r="B148">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C148" s="12">
         <v>2</v>
@@ -37188,7 +37188,7 @@
         <v>38</v>
       </c>
       <c r="B149">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C149" s="12">
         <v>2</v>
@@ -37240,7 +37240,7 @@
         <v>38</v>
       </c>
       <c r="B150">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C150" s="12">
         <v>2</v>
@@ -37291,7 +37291,7 @@
         <v>38</v>
       </c>
       <c r="B151">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C151" s="12">
         <v>2</v>
@@ -37342,7 +37342,7 @@
         <v>38</v>
       </c>
       <c r="B152">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C152" s="12">
         <v>2</v>
@@ -37393,7 +37393,7 @@
         <v>38</v>
       </c>
       <c r="B153">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C153" s="12">
         <v>2</v>
@@ -37444,7 +37444,7 @@
         <v>38</v>
       </c>
       <c r="B154">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C154" s="12">
         <v>2</v>
@@ -37495,7 +37495,7 @@
         <v>38</v>
       </c>
       <c r="B155">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C155" s="12">
         <v>2</v>
@@ -37546,7 +37546,7 @@
         <v>38</v>
       </c>
       <c r="B156">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C156" s="12">
         <v>2</v>
@@ -37597,7 +37597,7 @@
         <v>38</v>
       </c>
       <c r="B157">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C157" s="12">
         <v>2</v>
@@ -37648,7 +37648,7 @@
         <v>38</v>
       </c>
       <c r="B158">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C158" s="12">
         <v>2</v>
@@ -37699,7 +37699,7 @@
         <v>38</v>
       </c>
       <c r="B159">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C159" s="12">
         <v>2</v>
@@ -37750,7 +37750,7 @@
         <v>38</v>
       </c>
       <c r="B160">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C160" s="12">
         <v>2</v>
@@ -37801,7 +37801,7 @@
         <v>38</v>
       </c>
       <c r="B161">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C161" s="12">
         <v>2</v>
@@ -37852,7 +37852,7 @@
         <v>38</v>
       </c>
       <c r="B162">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C162" s="12">
         <v>2</v>
@@ -37903,7 +37903,7 @@
         <v>38</v>
       </c>
       <c r="B163">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C163" s="12">
         <v>2</v>
@@ -37954,7 +37954,7 @@
         <v>38</v>
       </c>
       <c r="B164">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C164" s="12">
         <v>2</v>
@@ -38005,7 +38005,7 @@
         <v>38</v>
       </c>
       <c r="B165">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C165" s="12">
         <v>2</v>
@@ -38056,7 +38056,7 @@
         <v>38</v>
       </c>
       <c r="B166">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C166" s="12">
         <v>2</v>
@@ -38107,7 +38107,7 @@
         <v>38</v>
       </c>
       <c r="B167">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C167" s="12">
         <v>2</v>
@@ -38158,7 +38158,7 @@
         <v>38</v>
       </c>
       <c r="B168">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C168" s="12">
         <v>2</v>
@@ -38209,7 +38209,7 @@
         <v>38</v>
       </c>
       <c r="B169">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C169" s="12">
         <v>2</v>
@@ -38260,7 +38260,7 @@
         <v>38</v>
       </c>
       <c r="B170">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C170" s="12">
         <v>2</v>
@@ -38311,7 +38311,7 @@
         <v>38</v>
       </c>
       <c r="B171">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C171" s="12">
         <v>2</v>
@@ -38362,7 +38362,7 @@
         <v>38</v>
       </c>
       <c r="B172">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C172" s="12">
         <v>2</v>
@@ -38413,7 +38413,7 @@
         <v>38</v>
       </c>
       <c r="B173">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C173" s="12">
         <v>2</v>
@@ -38464,7 +38464,7 @@
         <v>38</v>
       </c>
       <c r="B174">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C174" s="12">
         <v>2</v>
@@ -38515,7 +38515,7 @@
         <v>38</v>
       </c>
       <c r="B175">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C175" s="12">
         <v>2</v>
@@ -38566,7 +38566,7 @@
         <v>38</v>
       </c>
       <c r="B176">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C176" s="12">
         <v>2</v>
@@ -38617,7 +38617,7 @@
         <v>38</v>
       </c>
       <c r="B177">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C177" s="12">
         <v>2</v>
@@ -38668,7 +38668,7 @@
         <v>38</v>
       </c>
       <c r="B178">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C178" s="12">
         <v>2</v>
@@ -38708,7 +38708,7 @@
         <v>38</v>
       </c>
       <c r="B179">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C179" s="12">
         <v>2</v>
@@ -38748,7 +38748,7 @@
         <v>38</v>
       </c>
       <c r="B180">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C180" s="12">
         <v>2</v>
@@ -38788,7 +38788,7 @@
         <v>38</v>
       </c>
       <c r="B181">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C181" s="12">
         <v>2</v>
@@ -38828,7 +38828,7 @@
         <v>38</v>
       </c>
       <c r="B182">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C182" s="12">
         <v>2</v>
@@ -38868,7 +38868,7 @@
         <v>38</v>
       </c>
       <c r="B183">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C183" s="12">
         <v>2</v>
@@ -38908,7 +38908,7 @@
         <v>38</v>
       </c>
       <c r="B184">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C184" s="12">
         <v>2</v>
@@ -38948,7 +38948,7 @@
         <v>38</v>
       </c>
       <c r="B185">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C185" s="12">
         <v>2</v>
@@ -38988,7 +38988,7 @@
         <v>38</v>
       </c>
       <c r="B186">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C186" s="12">
         <v>2</v>
@@ -39028,7 +39028,7 @@
         <v>38</v>
       </c>
       <c r="B187">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C187" s="12">
         <v>2</v>
@@ -39068,7 +39068,7 @@
         <v>38</v>
       </c>
       <c r="B188">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C188" s="12">
         <v>2</v>
@@ -39108,7 +39108,7 @@
         <v>38</v>
       </c>
       <c r="B189">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C189" s="12">
         <v>2</v>
@@ -39148,7 +39148,7 @@
         <v>38</v>
       </c>
       <c r="B190">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C190" s="12">
         <v>2</v>
@@ -39188,7 +39188,7 @@
         <v>38</v>
       </c>
       <c r="B191">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C191" s="12">
         <v>2</v>
@@ -39228,7 +39228,7 @@
         <v>38</v>
       </c>
       <c r="B192">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C192" s="12">
         <v>2</v>
@@ -39268,7 +39268,7 @@
         <v>38</v>
       </c>
       <c r="B193">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C193" s="12">
         <v>2</v>
@@ -39308,7 +39308,7 @@
         <v>38</v>
       </c>
       <c r="B194">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C194" s="12">
         <v>2</v>
@@ -39348,7 +39348,7 @@
         <v>38</v>
       </c>
       <c r="B195">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C195" s="12">
         <v>2</v>
@@ -39388,7 +39388,7 @@
         <v>38</v>
       </c>
       <c r="B196">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C196" s="12">
         <v>2</v>
@@ -39428,7 +39428,7 @@
         <v>38</v>
       </c>
       <c r="B197">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C197" s="12">
         <v>2</v>
@@ -39468,7 +39468,7 @@
         <v>38</v>
       </c>
       <c r="B198">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C198" s="12">
         <v>2</v>
@@ -39508,7 +39508,7 @@
         <v>38</v>
       </c>
       <c r="B199">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C199" s="12">
         <v>2</v>
@@ -39548,7 +39548,7 @@
         <v>38</v>
       </c>
       <c r="B200">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C200" s="12">
         <v>2</v>
@@ -39588,7 +39588,7 @@
         <v>38</v>
       </c>
       <c r="B201">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C201" s="12">
         <v>2</v>
@@ -39628,7 +39628,7 @@
         <v>38</v>
       </c>
       <c r="B202">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C202" s="12">
         <v>2</v>
@@ -39668,7 +39668,7 @@
         <v>38</v>
       </c>
       <c r="B203">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C203" s="12">
         <v>2</v>
@@ -39708,7 +39708,7 @@
         <v>38</v>
       </c>
       <c r="B204">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C204" s="12">
         <v>2</v>
@@ -39748,7 +39748,7 @@
         <v>38</v>
       </c>
       <c r="B205">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C205" s="12">
         <v>2</v>
@@ -39788,7 +39788,7 @@
         <v>38</v>
       </c>
       <c r="B206">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C206" s="12">
         <v>2</v>
@@ -39828,7 +39828,7 @@
         <v>38</v>
       </c>
       <c r="B207">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C207" s="12">
         <v>2</v>
@@ -39868,7 +39868,7 @@
         <v>38</v>
       </c>
       <c r="B208">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C208" s="12">
         <v>2</v>
@@ -39908,7 +39908,7 @@
         <v>38</v>
       </c>
       <c r="B209">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C209" s="12">
         <v>2</v>
@@ -39948,7 +39948,7 @@
         <v>38</v>
       </c>
       <c r="B210">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C210" s="12">
         <v>2</v>
@@ -39988,7 +39988,7 @@
         <v>38</v>
       </c>
       <c r="B211">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C211" s="12">
         <v>2</v>
@@ -40028,7 +40028,7 @@
         <v>38</v>
       </c>
       <c r="B212">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C212" s="12">
         <v>2</v>
@@ -40068,7 +40068,7 @@
         <v>38</v>
       </c>
       <c r="B213">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C213" s="12">
         <v>2</v>
@@ -40108,7 +40108,7 @@
         <v>38</v>
       </c>
       <c r="B214">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C214" s="12">
         <v>2</v>
@@ -40148,7 +40148,7 @@
         <v>38</v>
       </c>
       <c r="B215">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C215" s="12">
         <v>2</v>
@@ -40188,7 +40188,7 @@
         <v>38</v>
       </c>
       <c r="B216">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C216" s="12">
         <v>2</v>
@@ -40228,7 +40228,7 @@
         <v>38</v>
       </c>
       <c r="B217">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C217" s="12">
         <v>2</v>
@@ -40268,7 +40268,7 @@
         <v>38</v>
       </c>
       <c r="B218">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C218" s="12">
         <v>2</v>
@@ -40308,7 +40308,7 @@
         <v>38</v>
       </c>
       <c r="B219">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C219" s="12">
         <v>2</v>
@@ -40348,7 +40348,7 @@
         <v>38</v>
       </c>
       <c r="B220">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C220" s="12">
         <v>2</v>
@@ -40388,7 +40388,7 @@
         <v>38</v>
       </c>
       <c r="B221">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C221" s="12">
         <v>2</v>
@@ -40428,7 +40428,7 @@
         <v>38</v>
       </c>
       <c r="B222">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C222" s="12">
         <v>2</v>
@@ -40468,7 +40468,7 @@
         <v>38</v>
       </c>
       <c r="B223">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C223" s="12">
         <v>2</v>
@@ -40508,7 +40508,7 @@
         <v>38</v>
       </c>
       <c r="B224">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C224" s="12">
         <v>2</v>
@@ -40548,7 +40548,7 @@
         <v>38</v>
       </c>
       <c r="B225">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C225" s="12">
         <v>2</v>
@@ -40588,7 +40588,7 @@
         <v>38</v>
       </c>
       <c r="B226">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C226" s="12">
         <v>2</v>
@@ -40628,7 +40628,7 @@
         <v>38</v>
       </c>
       <c r="B227">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C227" s="12">
         <v>2</v>
@@ -40668,7 +40668,7 @@
         <v>38</v>
       </c>
       <c r="B228">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C228" s="12">
         <v>2</v>
@@ -40708,7 +40708,7 @@
         <v>38</v>
       </c>
       <c r="B229">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C229" s="12">
         <v>2</v>
@@ -40748,7 +40748,7 @@
         <v>38</v>
       </c>
       <c r="B230">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C230" s="12">
         <v>2</v>
@@ -40788,7 +40788,7 @@
         <v>38</v>
       </c>
       <c r="B231">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C231" s="12">
         <v>2</v>
@@ -40828,7 +40828,7 @@
         <v>38</v>
       </c>
       <c r="B232">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C232" s="12">
         <v>2</v>
@@ -40868,7 +40868,7 @@
         <v>38</v>
       </c>
       <c r="B233">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C233" s="12">
         <v>2</v>
@@ -40908,7 +40908,7 @@
         <v>38</v>
       </c>
       <c r="B234">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C234" s="12">
         <v>2</v>
@@ -40948,7 +40948,7 @@
         <v>38</v>
       </c>
       <c r="B235">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C235" s="12">
         <v>2</v>
@@ -40988,7 +40988,7 @@
         <v>38</v>
       </c>
       <c r="B236">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C236" s="12">
         <v>2</v>
@@ -41028,7 +41028,7 @@
         <v>38</v>
       </c>
       <c r="B237">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C237" s="12">
         <v>2</v>
@@ -41068,7 +41068,7 @@
         <v>38</v>
       </c>
       <c r="B238">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C238" s="12">
         <v>2</v>
@@ -41108,7 +41108,7 @@
         <v>38</v>
       </c>
       <c r="B239">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C239" s="12">
         <v>2</v>
@@ -41148,7 +41148,7 @@
         <v>38</v>
       </c>
       <c r="B240">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C240" s="12">
         <v>2</v>
@@ -41188,7 +41188,7 @@
         <v>38</v>
       </c>
       <c r="B241">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C241" s="12">
         <v>2</v>
@@ -41228,7 +41228,7 @@
         <v>38</v>
       </c>
       <c r="B242">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C242" s="12">
         <v>2</v>
@@ -41268,7 +41268,7 @@
         <v>38</v>
       </c>
       <c r="B243">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C243" s="12">
         <v>2</v>
@@ -41308,7 +41308,7 @@
         <v>38</v>
       </c>
       <c r="B244">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C244" s="12">
         <v>2</v>
@@ -41348,7 +41348,7 @@
         <v>38</v>
       </c>
       <c r="B245">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C245" s="12">
         <v>2</v>
@@ -41388,7 +41388,7 @@
         <v>38</v>
       </c>
       <c r="B246">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C246" s="12">
         <v>2</v>
@@ -41428,7 +41428,7 @@
         <v>38</v>
       </c>
       <c r="B247">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C247" s="12">
         <v>2</v>
@@ -41468,7 +41468,7 @@
         <v>38</v>
       </c>
       <c r="B248">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C248" s="12">
         <v>2</v>
@@ -41508,7 +41508,7 @@
         <v>38</v>
       </c>
       <c r="B249">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C249" s="12">
         <v>2</v>
@@ -41548,7 +41548,7 @@
         <v>38</v>
       </c>
       <c r="B250">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C250" s="12">
         <v>2</v>
@@ -41588,7 +41588,7 @@
         <v>38</v>
       </c>
       <c r="B251">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C251" s="12">
         <v>2</v>
@@ -41628,7 +41628,7 @@
         <v>38</v>
       </c>
       <c r="B252">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C252" s="12">
         <v>2</v>
@@ -41668,7 +41668,7 @@
         <v>38</v>
       </c>
       <c r="B253">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C253" s="12">
         <v>2</v>
@@ -41708,7 +41708,7 @@
         <v>38</v>
       </c>
       <c r="B254">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C254" s="12">
         <v>2</v>
@@ -41748,7 +41748,7 @@
         <v>38</v>
       </c>
       <c r="B255">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C255" s="12">
         <v>2</v>
@@ -41788,7 +41788,7 @@
         <v>38</v>
       </c>
       <c r="B256">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C256" s="12">
         <v>2</v>
@@ -41828,7 +41828,7 @@
         <v>38</v>
       </c>
       <c r="B257">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C257" s="12">
         <v>2</v>
@@ -41868,7 +41868,7 @@
         <v>38</v>
       </c>
       <c r="B258">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C258" s="12">
         <v>2</v>
@@ -41908,7 +41908,7 @@
         <v>38</v>
       </c>
       <c r="B259">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C259" s="12">
         <v>2</v>
@@ -41948,7 +41948,7 @@
         <v>38</v>
       </c>
       <c r="B260">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C260" s="12">
         <v>2</v>
@@ -41988,7 +41988,7 @@
         <v>38</v>
       </c>
       <c r="B261">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C261" s="12">
         <v>2</v>
@@ -42028,7 +42028,7 @@
         <v>38</v>
       </c>
       <c r="B262">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C262" s="12">
         <v>2</v>
@@ -42068,7 +42068,7 @@
         <v>38</v>
       </c>
       <c r="B263">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C263" s="12">
         <v>2</v>
@@ -42108,7 +42108,7 @@
         <v>38</v>
       </c>
       <c r="B264">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C264" s="12">
         <v>2</v>
@@ -42148,7 +42148,7 @@
         <v>38</v>
       </c>
       <c r="B265">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C265" s="12">
         <v>2</v>
@@ -42188,7 +42188,7 @@
         <v>38</v>
       </c>
       <c r="B266">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C266" s="12">
         <v>2</v>
@@ -42228,7 +42228,7 @@
         <v>38</v>
       </c>
       <c r="B267">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C267" s="12">
         <v>2</v>
@@ -42268,7 +42268,7 @@
         <v>38</v>
       </c>
       <c r="B268">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C268" s="12">
         <v>2</v>
@@ -42308,7 +42308,7 @@
         <v>38</v>
       </c>
       <c r="B269">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C269" s="12">
         <v>2</v>
@@ -42348,7 +42348,7 @@
         <v>38</v>
       </c>
       <c r="B270">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C270" s="12">
         <v>2</v>
@@ -42388,7 +42388,7 @@
         <v>38</v>
       </c>
       <c r="B271">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C271" s="12">
         <v>2</v>
@@ -42428,7 +42428,7 @@
         <v>38</v>
       </c>
       <c r="B272">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C272" s="12">
         <v>2</v>
@@ -42468,7 +42468,7 @@
         <v>38</v>
       </c>
       <c r="B273">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C273" s="12">
         <v>2</v>
@@ -42508,7 +42508,7 @@
         <v>38</v>
       </c>
       <c r="B274">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C274" s="12">
         <v>2</v>
@@ -42548,7 +42548,7 @@
         <v>38</v>
       </c>
       <c r="B275">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C275" s="12">
         <v>2</v>
@@ -42588,7 +42588,7 @@
         <v>38</v>
       </c>
       <c r="B276">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C276" s="12">
         <v>2</v>
@@ -42628,7 +42628,7 @@
         <v>38</v>
       </c>
       <c r="B277">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C277" s="12">
         <v>2</v>
@@ -42668,7 +42668,7 @@
         <v>38</v>
       </c>
       <c r="B278">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C278" s="12">
         <v>2</v>
@@ -42708,7 +42708,7 @@
         <v>38</v>
       </c>
       <c r="B279">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C279" s="12">
         <v>2</v>
@@ -42748,7 +42748,7 @@
         <v>38</v>
       </c>
       <c r="B280">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C280" s="12">
         <v>2</v>
@@ -42788,7 +42788,7 @@
         <v>38</v>
       </c>
       <c r="B281">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="C281" s="12">
         <v>2</v>
